--- a/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_2.0.0_reqs.xlsx
+++ b/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_2.0.0_reqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre.sharepoint.com/sites/Inferno/Shared Documents/Testing and Development/Bulk Data Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA0E936-2097-4CB3-BE6A-2721738F1FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2629" documentId="8_{ED990E66-8A12-4443-95F7-E1FDE9C2FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A26672E-1743-4207-A1B7-84CF9DD46003}"/>
   <bookViews>
-    <workbookView xWindow="-31160" yWindow="-22200" windowWidth="31120" windowHeight="28300" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Column Data" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$AJ$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$AE$311</definedName>
     <definedName name="EXPLODE" localSheetId="0">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="EXPLODE">_xlfn.LAMBDA(_xlpm.string,_xlfn.MAKEARRAY(1,LEN(_xlpm.string),_xlfn.LAMBDA(_xlpm.r,_xlpm.c,MID(_xlpm.string,_xlpm.c,1))))</definedName>
     <definedName name="FIND_DUPLICATES" localSheetId="0">_xlfn.LAMBDA(_xlpm.test_word,_xlpm.test_key,_xlpm.words,_xlpm.keys,_xlpm.threshold, _xlfn.LET(_xlpm.duplist,_xlfn._xlws.FILTER(_xlpm.keys,_xlfn.BYROW(_xlpm.words, _xlfn.LAMBDA(_xlpm.word, Info!HAMDIST(INDEX(_xlpm.word,1,1), _xlpm.test_word)&lt;_xlpm.threshold))),_xlfn.SINGLE(_xlfn._xlws.FILTER(_xlpm.duplist,_xlpm.duplist&lt;&gt;_xlpm.test_key,""))))</definedName>
@@ -41,7 +41,7 @@
     <definedName name="STRREV" localSheetId="0">_xlfn.LAMBDA(_xlpm.word, _xlfn.CONCAT(MID(_xlpm.word,_xlfn.SEQUENCE(LEN(_xlpm.word),,LEN(_xlpm.word),-1),1)))</definedName>
     <definedName name="STRREV">_xlfn.LAMBDA(_xlpm.word, _xlfn.CONCAT(MID(_xlpm.word,_xlfn.SEQUENCE(LEN(_xlpm.word),,LEN(_xlpm.word),-1),1)))</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="497">
   <si>
     <r>
       <rPr>
@@ -1356,18 +1356,31 @@
     <t>Bulk Data Client - system that ... receives access tokens</t>
   </si>
   <si>
-    <t>Bulk Data Client - system that requests ... Bulk Data files</t>
+    <t>[A] Bulk Data Client [is a] system that requests ... Bulk Data files</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token</t>
+  </si>
+  <si>
+    <t>[A] Bulk Data Client [is a] system that ... receives ... Bulk Data files</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Bulk Data Client - system that ... receives ... Bulk Data files</t>
-  </si>
-  <si>
     <t>FHIR Authorization Server … issues access tokens in response to valid token requests from client.</t>
   </si>
   <si>
+    <t>- Detect if the client made an $export request</t>
+  </si>
+  <si>
     <t>FHIR Resource Server … accepts kick-off request</t>
   </si>
   <si>
@@ -1425,6 +1438,20 @@
     <t>A client MAY repeat kick-off parameters that accept comma delimited values multiple times in a kick-off request.</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>This seems more like a requirement that the server can handle the alternative notation.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>e.g. [fhir base]/Patient/$export?_elements=id&amp;_elements=language
+vs
+[fhir base]/Patient/$export?_elements=id,language</t>
+  </si>
+  <si>
     <t>The server SHALL treat the values provided as if they were comma delimited values within a single instance of the parameter.</t>
   </si>
   <si>
@@ -1476,7 +1503,12 @@
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#headers</t>
   </si>
   <si>
-    <t>A client SHOULD provide [the accept] header.</t>
+    <t>A client SHOULD provide [the Accept] header.</t>
+  </si>
+  <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token
+3. Request headers are inspected for existence of "Accept: application/fhir+json"</t>
   </si>
   <si>
     <t>If [the client omits the accept header], the server MAY return an error or MAY process the request as if application/fhir+json was supplied.</t>
@@ -1485,16 +1517,30 @@
     <t>A client SHOULD provide [the prefer] header [with value "respond-async"].</t>
   </si>
   <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token
+3. Request headers are inspected for existence of "Prefer: respond-async"</t>
+  </si>
+  <si>
     <t>If [the client omits the prefer header], the server MAY return an error or MAY process the request as if respond-async was supplied.</t>
   </si>
   <si>
+    <t>- Client makes an $export request</t>
+  </si>
+  <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#query-parameters</t>
   </si>
   <si>
     <t>`_outputFormat`: Optionality for Server: required</t>
   </si>
   <si>
+    <t>- Detect if request included a "Prefer: respond-async" header</t>
+  </si>
+  <si>
     <t>`_outputFormat`: Optionality for Client: optional</t>
+  </si>
+  <si>
+    <t>MAY param requirement</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#query-parameters, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-export.html#bulkdataexport, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-group-export.html#grouplevelexport, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-patient-export.html#patientlevelexport</t>
@@ -1732,7 +1778,10 @@
     <t>`includeAssociatedData`: When a Prefer: handling=lenient header is included in the request, the server MAY process the request instead of returning an error.</t>
   </si>
   <si>
-    <t>`includeAssociatedData`: A client MAY include one or more of the following values.</t>
+    <t>`includeAssociatedData`: A client MAY include one or more of the following values…
+- `LatestProvenanceResources`…
+- `RelevantProvenanceResources`…
+- `_[custom value]`…</t>
   </si>
   <si>
     <t>hl7.fhir.uv.bulkdata_2.0.0@97-100</t>
@@ -1741,6 +1790,9 @@
     <t xml:space="preserve">`includeAssociatedData`: If multiple conflicting values are included, the server SHALL apply the least restrictive value (value that will return the largest dataset). </t>
   </si>
   <si>
+    <t>Server supports `includeAssociatedData`,  If multiple conflicting values are included,</t>
+  </si>
+  <si>
     <t>`includeAssociatedData`: `LatestProvenanceResources`: Export will include the most recent Provenance resources associated with each of the non-provenance resources being returned.</t>
   </si>
   <si>
@@ -1765,7 +1817,10 @@
     <t>Server supports `_typeFilter`</t>
   </si>
   <si>
-    <t>`_typeFilter`:FHIR search response parameters such as _include and _sort SHALL NOT be used.</t>
+    <t>`_typeFilter`: FHIR search response parameters such as _include and _sort SHALL NOT be used.</t>
+  </si>
+  <si>
+    <t>Depends on MAY params requirements</t>
   </si>
   <si>
     <t>`_typeFilter`:A server unable to support the requested _typeFilter queries SHOULD return an error and FHIR OperationOutcome resource</t>
@@ -1819,6 +1874,9 @@
     <t xml:space="preserve">A client MAY repeat the `_typeFilter` parameter multiple times in a kick-off request. </t>
   </si>
   <si>
+    <t>Same as 31 (but specific to `_typeFilter`)?</t>
+  </si>
+  <si>
     <t>When [the `_typeFilter` parameter is] repeated, the server SHALL treat the repeated values as if they were comma delimited values within a single `_typeFilter` parameter.</t>
   </si>
   <si>
@@ -1843,6 +1901,13 @@
     <t>After a Bulk Data request has been started,</t>
   </si>
   <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token
+3. Inferno creates a "never resolving" bulk request
+4. Client makes a `DELETE` request to the `Content-Location` included in response to bulk request
+5. `DELETE` request is validated.</t>
+  </si>
+  <si>
     <t>If the request has been completed, a server MAY use the request as a signal that ... it is safe for the sever to remove those [requested files] from storage.</t>
   </si>
   <si>
@@ -1867,12 +1932,36 @@
     <t>After a Bulk Data request has been started</t>
   </si>
   <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token
+3. Inferno keeps track of a new bulk request internally
+4. Client makes a polling request to the `Content-Location` included in response to bulk request
+5. Polling request is validated.</t>
+  </si>
+  <si>
     <t>Clients SHOULD follow an exponential backoff approach when polling for status.</t>
   </si>
   <si>
     <t xml:space="preserve"> when polling for status.</t>
   </si>
   <si>
+    <t>See Question</t>
+  </si>
+  <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token
+3. Inferno keeps track of a new bulk request internally, but does not immediately resolve it
+4. Client makes recurring polling requests to the `Content-Location` included in response to bulk request
+5. After 5 (?) requests, inferno responds with 200 Complete Status to stop client from retrying
+6. Validate that timestamps for each 5 requests follows exponential backoff, i.e. t = b^c, the delay between each request grows exponentially</t>
+  </si>
+  <si>
+    <t>Assume base 2?
+1. Calculate delay between each request
+2. Calculate the logarithm of all 4 delays
+3. Calculate differences, and check that they are approximately (within some tolerance???) equal</t>
+  </si>
+  <si>
     <t xml:space="preserve">A server SHOULD supply a `Retry-After` header with a with a delay time in seconds (e.g., 120 to represent two minutes) or a http-date (e.g., Fri, 31 Dec 1999 23:59:59 GMT). </t>
   </si>
   <si>
@@ -1885,6 +1974,15 @@
     <t>When provided a [`Retry-After` header is provided]</t>
   </si>
   <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token
+3. Inferno keeps track of a new bulk request internally, but does not immediately resolve it
+4. Client makes a polling request to the `Content-Location` included in response to bulk request
+5. Polling request responds with 202 - In-Progress Status, and includes a `Retry-After` (that occurs at least seconds in the future).
+6. Client makes a request after the `Retry-After`
+7. Polling request is validated to have occured after the `Retry-After`</t>
+  </si>
+  <si>
     <t>The server SHOULD keep an accounting of status queries received from a given client</t>
   </si>
   <si>
@@ -1906,6 +2004,13 @@
     <t xml:space="preserve">When requesting status, </t>
   </si>
   <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token
+3. Inferno keeps track of a new bulk request internally
+4. Client makes a polling request to the `Content-Location` included in response to bulk request
+5. Polling request headers are inspected for existence of "Accept: application/json"</t>
+  </si>
+  <si>
     <t>In the case that errors prevent the export from completing, the server SHOULD respond with a FHIR OperationOutcome resource in JSON format.</t>
   </si>
   <si>
@@ -1915,7 +2020,7 @@
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#response---in-progress-status</t>
   </si>
   <si>
-    <t>Response - In-Progress Status: HTTP Status Code of `202 Accepted`</t>
+    <t>[A Bulk Data server SHALL resond to a successful Status Request that is in-progress with] HTTP Status Code of `202 Accepted`</t>
   </si>
   <si>
     <t>the server MAY return an `X-Progress` header with a text description of the status of the request that is less than 100 characters.</t>
@@ -1924,22 +2029,22 @@
     <t xml:space="preserve">The format of [the `X-Progress`] description ... MAY be a percentage complete value, or MAY be a more general status such as “in progress”. </t>
   </si>
   <si>
-    <t>The client MAY parse the description, display it to the user, or log it.</t>
+    <t>The client MAY parse the [status] description [sent in the `X-Progress` header], display it to the user, or log it.</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#response---error-status-1</t>
   </si>
   <si>
-    <t>Response - Error Status: HTTP status code of `4XX` or `5XX`</t>
-  </si>
-  <si>
-    <t>`Content-Type` header of `application/fhir+json` when body is a FHIR `OperationOutcome` resource</t>
+    <t>[A Bulk Data server SHALL respond to an errored Bulk Data Status Request with]  HTTP Status Code of `4XX` or `5XX`</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to an errored Bulk Data Status Request with] `Content-Type` header of `application/fhir+json` when body is a FHIR `OperationOutcome` resource</t>
   </si>
   <si>
     <t>when body is a FHIR `OperationOutcome` resource</t>
   </si>
   <si>
-    <t>The body of the response SHOULD be a FHIR OperationOutcome resource in JSON format.</t>
+    <t>[When a Bulk Data server responds to an errored Bulk Data Delete Request,]  [t]he body of the response SHOULD be a FHIR OperationOutcome resource in JSON format.</t>
   </si>
   <si>
     <t xml:space="preserve"> If [a response including the FHIR `OperationOutcome` resource] is not possible (for example, the infrastructure layer returning the error is not FHIR aware), the server MAY return an error message in another format and include a corresponding value for the `Content-Type` header.</t>
@@ -1975,26 +2080,25 @@
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#response---complete-status</t>
   </si>
   <si>
-    <t>Response - Complete Status: HTTP status of `200 OK`</t>
-  </si>
-  <si>
-    <t>Response - Complete Status: `Content-Type` header of `application/json`</t>
-  </si>
-  <si>
-    <t>Response - Complete Status: The server SHOULD return an Expires header indicating when the files listed will no longer be available for access.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Response - Complete Status: A body containing a JSON object providing metadata, and links to the generated Bulk Data files.</t>
-  </si>
-  <si>
-    <t>The files [linked in the response] SHALL be accessible to the client at the URLs advertised.</t>
-  </si>
-  <si>
-    <t>These URLs [advertised in the response] MAY be served by file servers other than a FHIR-specific server.</t>
+    <t>[A Bulk Data server SHALL respond to a successful Status Request that has completed with] HTTP status of `200 OK`</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to a successful Status Request that has completed with] `Content-Type` header of `application/json`</t>
+  </si>
+  <si>
+    <t>[When a Bulk Data server responds to a successful Status Request that has completed, it] SHOULD return an Expires header indicating when the files listed will no longer be available for access.</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to a successful Status Request that has completed with a] body containing a JSON object providing metadata, and links to the generated Bulk Data files.</t>
+  </si>
+  <si>
+    <t>[When a Bulk Data server responds to a successful Status Request that has completed,] [t]he files [linked in the response] SHALL be accessible to the client at the URLs advertised.</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to an errored Bulk Data Output File Request with]  HTTP Status Code of `4XX` or `5XX`</t>
+  </si>
+  <si>
+    <t>[When a Bulk Data server responds to a successful Status Request that has completed, the] URLs [advertised in the response] MAY be served by file servers other than a FHIR-specific server.</t>
   </si>
   <si>
     <t>Response - Complete Status:
@@ -2273,12 +2377,24 @@
     <t>Using the URLs supplied by the FHIR server in the Complete Status response body</t>
   </si>
   <si>
+    <t>Same as 123 + follow download link</t>
+  </si>
+  <si>
     <t>If the requiresAccessToken field in the Complete Status body is set to true, the request SHALL include a valid access token.</t>
   </si>
   <si>
     <t>If the requiresAccessToken field in the Complete Status body is set to true</t>
   </si>
   <si>
+    <t>1. "Wait" test listens for requests
+2. Client makes a bulk request (i.e. `/$export`) to provided endpoint with provided token
+3. Inferno "completes" the export immediately, e.g. in the same request handler
+4. Client makes a polling request to the `Content-Location` included in response to bulk request
+4. Polling request responds with 200 - Complete Status, includes a `requiresAccessToken` in  body.
+5. Client makes a request to the bulk data file download URL
+6. Download request is checked for inclusion of valid access token</t>
+  </si>
+  <si>
     <t>The exported data SHALL include only the most recent version of any exported resources unless the client explicitly requests different behavior in a fashion supported by the server</t>
   </si>
   <si>
@@ -2288,35 +2404,32 @@
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#endpoint-2</t>
   </si>
   <si>
-    <t>Endpoint: GET [url from status request output field]</t>
+    <t>[A Bulk Data server SHALL support Output File Requests at the endpoint] `GET [url from status request output field]`</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#headers-1</t>
   </si>
   <si>
-    <t>Headers: Accept (optional, defaults to application/fhir+ndjson)</t>
+    <t>[To request an Output File, a client MAY use the header] Accept (... defaults to application/fhir+ndjson)</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#response---success-2</t>
   </si>
   <si>
-    <t>Response - Success: HTTP status of 200 OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response - Success: `Content-Type` header that matches the file format being delivered. </t>
-  </si>
-  <si>
-    <t>Response - Success: For files in ndjson format, [`Content-Type`] SHALL be `application/fhir+ndjson`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response - Success: Body of FHIR resources in newline delimited json - ndjson or other requested format
+    <t>[A Bulk Data server SHALL respond to a successful Output File Request with] HTTP status of `200 OK`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A Bulk Data server SHALL respond to a successful Output File Request with] `Content-Type` header that matches the file format being delivered. </t>
+  </si>
+  <si>
+    <t>[When Bulk Data server responds to a successful Output File Request,] [f]or files in ndjson format, [`Content-Type`] SHALL be `application/fhir+ndjson`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A Bulk Data server SHALL respond to a successful Output File Request with] [b]ody of FHIR resources in newline delimited json - ndjson or other requested format
 </t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#response---error</t>
-  </si>
-  <si>
-    <t>Response - Error: HTTP Status Code of `4XX` or `5XX`</t>
   </si>
   <si>
     <t>Attachments: If resources in an output file contain elements of the type Attachment, the server SHOULD populate the Attachment.contentType code</t>
@@ -2386,6 +2499,9 @@
     <t>A FHIR Bulk Data Client has the option of choosing from this list to access necessary data based on use cases and other contextual requirements.</t>
   </si>
   <si>
+    <t>Not specifically testable?</t>
+  </si>
+  <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/artifacts.html#behavior-operation-definitions</t>
   </si>
   <si>
@@ -2455,9 +2571,6 @@
     <t>`_outputFormat`: requirements</t>
   </si>
   <si>
-    <t>hl7.fhir.uv.bulkdata_2.0.0@47-52</t>
-  </si>
-  <si>
     <t>`_since`: Support is required for a server</t>
   </si>
   <si>
@@ -2467,9 +2580,6 @@
     <t>`_since`: requirements</t>
   </si>
   <si>
-    <t>hl7.fhir.uv.bulkdata_2.0.0@53-59</t>
-  </si>
-  <si>
     <t xml:space="preserve">`_type`: Support is optional for a server </t>
   </si>
   <si>
@@ -2479,9 +2589,6 @@
     <t>`_type`: requirements</t>
   </si>
   <si>
-    <t>hl7.fhir.uv.bulkdata_2.0.0@60-72</t>
-  </si>
-  <si>
     <t xml:space="preserve">`_elements`: Support is optional for a server </t>
   </si>
   <si>
@@ -2491,9 +2598,6 @@
     <t>`_elements`: requirements</t>
   </si>
   <si>
-    <t>hl7.fhir.uv.bulkdata_2.0.0@73-82</t>
-  </si>
-  <si>
     <t xml:space="preserve">`includeAssociatedData`: Support is optional for a server </t>
   </si>
   <si>
@@ -2503,9 +2607,6 @@
     <t>`includeAssociatedData`: requirements</t>
   </si>
   <si>
-    <t>hl7.fhir.uv.bulkdata_2.0.0@90-100</t>
-  </si>
-  <si>
     <t xml:space="preserve">`_typeFilter`: Support is optional for a server </t>
   </si>
   <si>
@@ -2515,9 +2616,6 @@
     <t>`_typeFilter`: requirements</t>
   </si>
   <si>
-    <t>hl7.fhir.uv.bulkdata_2.0.0@101-106</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-group-export.html#grouplevelexport</t>
   </si>
   <si>
@@ -2536,9 +2634,6 @@
     <t>`patient`: requirements</t>
   </si>
   <si>
-    <t>hl7.fhir.uv.bulkdata_2.0.0@83-89</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-patient-export.html#patientlevelexport</t>
   </si>
   <si>
@@ -2552,6 +2647,69 @@
   </si>
   <si>
     <t>See requirement 3 for the server sister requirement.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#endpoint---all-patients</t>
+  </si>
+  <si>
+    <t>[If the server supports Bulk Data Patient Export, the endpoint SHALL be] `[fhir base]/Patient/$export`</t>
+  </si>
+  <si>
+    <t>[If the server supports Bulk Data Group Export, the endpoint SHALL be] `[fhir base]/Group/[id]/$export`</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#endpoint---system-level-export</t>
+  </si>
+  <si>
+    <t>[If the server supports Bulk Data System Level Export, the endpoint SHALL be] `[fhir base]/$export`</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#response---success</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to a successful Bulk Data Kickoff Request with]  HTTP Status Code of `202 Accepted`</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to a successful Bulk Data Kickoff Request with]  `Content-Location` header with the absolute URL of an endpoint for subsequent status requests (polling location)</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server MAY respond to a successful Bulk Data Kickoff Request with]  a FHIR `OperationOutcome` resource in the body in JSON format</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to an errored Bulk Data Kickoff Request with]  HTTP Status Code of `4XX` or `5XX`</t>
+  </si>
+  <si>
+    <t>[When a Bulk Data server responds to an errored Bulk Data Kickoff Request,]  [t]he body SHALL be a FHIR OperationOutcome resource in JSON format</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#endpoint</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL support Delete Requests at the endpoint] `DELETE [polling content location]`</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#response---success-1</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to a successful Delete Request with] HTTP Status Code of `202 Accepted`</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server MAY respond to a successful Delete Request with] a FHIR `OperationOutcome` resource in the body in JSON format</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#response---error-status</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL respond to an errored Bulk Data Delete Request with]  HTTP Status Code of `4XX` or `5XX`</t>
+  </si>
+  <si>
+    <t>[When a Bulk Data server responds to an errored Bulk Data Delete Request,]  [t]he body SHALL be a FHIR OperationOutcome resource in JSON format</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#endpoint-1</t>
+  </si>
+  <si>
+    <t>[A Bulk Data server SHALL support Status Requests at the endpoint] `GET [polling content location]`</t>
   </si>
   <si>
     <r>
@@ -2856,13 +3014,7 @@
     <t>ATTESTATION</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>AUTOMATION</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>OUT OF SCOPE</t>
@@ -2872,7 +3024,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3004,8 +3156,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3066,8 +3225,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3237,12 +3402,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3266,7 +3513,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3343,14 +3589,50 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3756,78 +4038,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA7094-ECFF-0B4E-A5C9-6F41B8D76EEB}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="133.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="21"/>
-    <col min="3" max="3" width="91.125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="16"/>
+    <col min="1" max="1" width="133.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="20"/>
+    <col min="3" max="3" width="91.125" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="339.95" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="124.5" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="134.1" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" ht="408.95" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" ht="164.1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="98.1" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="71"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
     </row>
     <row r="9" spans="1:3" ht="68.099999999999994" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:3" ht="291.95">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3841,46 +4121,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <dimension ref="A1:AJ297"/>
+  <dimension ref="A1:AE318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="L233" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C221" sqref="C221"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="7"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="26.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="41" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="7" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="8" customWidth="1"/>
     <col min="7" max="7" width="14" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10" style="31" customWidth="1"/>
-    <col min="10" max="10" width="22" style="31" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="31" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="24.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10" style="30" customWidth="1"/>
+    <col min="10" max="10" width="22" style="30" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="30" customWidth="1"/>
+    <col min="12" max="12" width="25.875" style="30" customWidth="1"/>
     <col min="13" max="13" width="20" style="9" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="9" customWidth="1"/>
     <col min="15" max="15" width="10.875" style="10" customWidth="1"/>
     <col min="16" max="18" width="10.875" style="10"/>
-    <col min="19" max="19" width="10.5" style="17" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="16" customWidth="1"/>
     <col min="20" max="20" width="42.5" style="10" customWidth="1"/>
     <col min="21" max="22" width="44.125" style="10" customWidth="1"/>
-    <col min="23" max="23" width="11" style="6" customWidth="1"/>
-    <col min="24" max="24" width="10.875" style="6"/>
-    <col min="25" max="25" width="14.875" style="6" customWidth="1"/>
-    <col min="26" max="16384" width="10.875" style="6"/>
+    <col min="23" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="5" customFormat="1" ht="32.1">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="29.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3898,19 +4176,19 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -3931,7 +4209,7 @@
       <c r="R1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>26</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -3943,24 +4221,15 @@
       <c r="V1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="46">
-        <v>13</v>
-      </c>
-      <c r="X1" s="47">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="47">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="48">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="5" customFormat="1" ht="84.95">
+      <c r="W1" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="84.95">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3976,11 +4245,11 @@
       <c r="G2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="9" t="str" cm="1">
         <f t="array" ref="M2">PAGE_NAME(B2)</f>
         <v/>
@@ -3999,16 +4268,14 @@
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="17"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
       <c r="W2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="14"/>
-      <c r="AD2" s="14"/>
-    </row>
-    <row r="3" spans="1:36" s="5" customFormat="1" ht="246.95" customHeight="1">
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="246.95" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4028,11 +4295,11 @@
       <c r="G3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="9" t="str" cm="1">
         <f t="array" ref="M3">PAGE_NAME(B3)</f>
         <v>export</v>
@@ -4051,16 +4318,15 @@
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="17"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="14"/>
-      <c r="AD3" s="14"/>
-    </row>
-    <row r="4" spans="1:36" ht="17.100000000000001">
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="1:31" ht="17.100000000000001">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4098,18 +4364,15 @@
       <c r="V4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="14"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="14"/>
+      <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-    </row>
-    <row r="5" spans="1:36" ht="84.95">
+    </row>
+    <row r="5" spans="1:31" ht="84.95">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4147,15 +4410,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z5" s="14"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-    </row>
-    <row r="6" spans="1:36" ht="119.1">
+    </row>
+    <row r="6" spans="1:31" ht="119.1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4174,7 +4434,7 @@
       <c r="G6" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>44</v>
       </c>
       <c r="M6" s="9" t="str" cm="1">
@@ -4193,15 +4453,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z6" s="14"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:36" ht="68.099999999999994">
+    </row>
+    <row r="7" spans="1:31" ht="68.099999999999994">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4236,15 +4493,12 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
-      <c r="Z7" s="14"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:36" ht="51">
+    </row>
+    <row r="8" spans="1:31" ht="51">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4279,16 +4533,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="14"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-    </row>
-    <row r="9" spans="1:36" ht="68.099999999999994">
+    </row>
+    <row r="9" spans="1:31" ht="68.099999999999994">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4324,7 +4574,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="51">
+    <row r="10" spans="1:31" ht="51">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4360,7 +4610,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="68.099999999999994">
+    <row r="11" spans="1:31" ht="68.099999999999994">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4396,7 +4646,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="68.099999999999994">
+    <row r="12" spans="1:31" ht="68.099999999999994">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4432,7 +4682,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="33.950000000000003">
+    <row r="13" spans="1:31" ht="33.950000000000003">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4468,7 +4718,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="33.950000000000003">
+    <row r="14" spans="1:31" ht="33.950000000000003">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -4504,7 +4754,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="33.950000000000003">
+    <row r="15" spans="1:31" ht="33.950000000000003">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -4540,11 +4790,11 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="33.950000000000003">
+    <row r="16" spans="1:31" ht="30.75">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="65" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -4576,11 +4826,11 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="33.950000000000003">
+    <row r="17" spans="1:23" ht="30.75">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -4612,11 +4862,11 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="33.950000000000003">
+    <row r="18" spans="1:23" ht="93.75" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="65" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -4630,6 +4880,12 @@
       </c>
       <c r="G18" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M18" s="9" t="str" cm="1">
         <f t="array" ref="M18">PAGE_NAME(B18)</f>
@@ -4647,19 +4903,22 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
-      <c r="W18" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="33.950000000000003">
+      <c r="S18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="30.75">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>36</v>
@@ -4686,11 +4945,11 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
-      <c r="X19" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="51">
+      <c r="W19" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="51">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -4698,7 +4957,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>36</v>
@@ -4725,8 +4984,11 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="17.100000000000001">
+      <c r="U20" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="17.100000000000001">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -4734,7 +4996,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>36</v>
@@ -4762,7 +5024,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="17.100000000000001">
+    <row r="22" spans="1:23" ht="17.100000000000001">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -4770,7 +5032,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
@@ -4798,7 +5060,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="33.950000000000003">
+    <row r="23" spans="1:23" ht="33.950000000000003">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -4806,7 +5068,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>36</v>
@@ -4834,7 +5096,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="33.950000000000003">
+    <row r="24" spans="1:23" ht="33.950000000000003">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -4842,7 +5104,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>36</v>
@@ -4869,9 +5131,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
-      <c r="T24" s="17"/>
-    </row>
-    <row r="25" spans="1:24" ht="33.950000000000003">
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:23" ht="33.950000000000003">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -4879,7 +5141,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>36</v>
@@ -4907,7 +5169,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="33.950000000000003">
+    <row r="26" spans="1:23" ht="33.950000000000003">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -4915,7 +5177,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>36</v>
@@ -4943,21 +5205,21 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="17.100000000000001">
+    <row r="27" spans="1:23" ht="17.100000000000001">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G27" s="7" t="b">
         <v>0</v>
@@ -4979,18 +5241,18 @@
         <v/>
       </c>
       <c r="V27" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="51">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="51">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>36</v>
@@ -5018,15 +5280,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="68.099999999999994">
+    <row r="29" spans="1:23" ht="68.099999999999994">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>36</v>
@@ -5035,7 +5297,7 @@
         <v>33</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G29" s="7" t="b">
         <v>0</v>
@@ -5057,15 +5319,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="17.100000000000001">
+    <row r="30" spans="1:23" ht="17.100000000000001">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>36</v>
@@ -5093,15 +5355,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="51">
+    <row r="31" spans="1:23" ht="51">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>39</v>
@@ -5110,7 +5372,7 @@
         <v>33</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G31" s="7" t="b">
         <v>0</v>
@@ -5132,15 +5394,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="51">
+    <row r="32" spans="1:23" ht="63.75" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>74</v>
+      <c r="B32" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>39</v>
@@ -5150,6 +5412,15 @@
       </c>
       <c r="G32" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="M32" s="9" t="str" cm="1">
         <f t="array" ref="M32">PAGE_NAME(B32)</f>
@@ -5167,19 +5438,23 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
-      <c r="W32" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="51">
+      <c r="S32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T32" s="16"/>
+      <c r="V32" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="51">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>36</v>
@@ -5207,15 +5482,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="68.099999999999994">
+    <row r="34" spans="1:21" ht="68.099999999999994">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>32</v>
@@ -5226,8 +5501,8 @@
       <c r="G34" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>84</v>
+      <c r="H34" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="M34" s="9" t="str" cm="1">
         <f t="array" ref="M34">PAGE_NAME(B34)</f>
@@ -5246,15 +5521,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="68.099999999999994">
+    <row r="35" spans="1:21" ht="68.099999999999994">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>32</v>
@@ -5265,8 +5540,8 @@
       <c r="G35" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>86</v>
+      <c r="H35" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="M35" s="9" t="str" cm="1">
         <f t="array" ref="M35">PAGE_NAME(B35)</f>
@@ -5285,15 +5560,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="51">
+    <row r="36" spans="1:21" ht="51">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>32</v>
@@ -5304,8 +5579,8 @@
       <c r="G36" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>84</v>
+      <c r="H36" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="M36" s="9" t="str" cm="1">
         <f t="array" ref="M36">PAGE_NAME(B36)</f>
@@ -5324,15 +5599,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="51">
+    <row r="37" spans="1:21" ht="51">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>32</v>
@@ -5343,8 +5618,8 @@
       <c r="G37" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>86</v>
+      <c r="H37" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="M37" s="9" t="str" cm="1">
         <f t="array" ref="M37">PAGE_NAME(B37)</f>
@@ -5363,15 +5638,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="84.95">
+    <row r="38" spans="1:21" ht="84.95">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>39</v>
@@ -5382,8 +5657,8 @@
       <c r="G38" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>84</v>
+      <c r="H38" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="M38" s="9" t="str" cm="1">
         <f t="array" ref="M38">PAGE_NAME(B38)</f>
@@ -5402,15 +5677,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="102">
+    <row r="39" spans="1:21" ht="102">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>39</v>
@@ -5421,8 +5696,8 @@
       <c r="G39" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>86</v>
+      <c r="H39" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="M39" s="9" t="str" cm="1">
         <f t="array" ref="M39">PAGE_NAME(B39)</f>
@@ -5441,15 +5716,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="84.95">
+    <row r="40" spans="1:21" ht="84.95">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>39</v>
@@ -5458,7 +5733,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>0</v>
@@ -5480,15 +5755,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="51">
+    <row r="41" spans="1:21" ht="51">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>39</v>
@@ -5516,15 +5791,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="84.95">
+    <row r="42" spans="1:21" ht="84.95">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>39</v>
@@ -5552,15 +5827,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="51">
+    <row r="43" spans="1:21" ht="51">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>32</v>
@@ -5571,8 +5846,8 @@
       <c r="G43" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H43" s="17" t="s">
-        <v>97</v>
+      <c r="H43" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="M43" s="9" t="str" cm="1">
         <f t="array" ref="M43">PAGE_NAME(B43)</f>
@@ -5591,15 +5866,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="17.100000000000001">
+    <row r="44" spans="1:21" ht="90" customHeight="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>98</v>
+      <c r="B44" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>32</v>
@@ -5609,6 +5884,12 @@
       </c>
       <c r="G44" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M44" s="9" t="str" cm="1">
         <f t="array" ref="M44">PAGE_NAME(B44)</f>
@@ -5626,19 +5907,22 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
-      <c r="W44" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="51">
+      <c r="S44" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T44" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="51">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>39</v>
@@ -5666,15 +5950,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="33.950000000000003">
+    <row r="46" spans="1:21" ht="93.75" customHeight="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>98</v>
+      <c r="B46" s="65" t="s">
+        <v>106</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>32</v>
@@ -5684,6 +5968,12 @@
       </c>
       <c r="G46" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M46" s="9" t="str" cm="1">
         <f t="array" ref="M46">PAGE_NAME(B46)</f>
@@ -5701,19 +5991,22 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
-      <c r="W46" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="51">
+      <c r="S46" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T46" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="51">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>39</v>
@@ -5740,16 +6033,19 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="33.950000000000003">
+      <c r="U47" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>103</v>
+      <c r="B48" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>36</v>
@@ -5776,16 +6072,19 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="33.950000000000003">
+      <c r="U48" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="43.5">
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>103</v>
+      <c r="B49" s="65" t="s">
+        <v>114</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>39</v>
@@ -5795,6 +6094,15 @@
       </c>
       <c r="G49" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M49" s="9" t="str" cm="1">
         <f t="array" ref="M49">PAGE_NAME(B49)</f>
@@ -5812,19 +6120,19 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
-      <c r="W49" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="33.950000000000003">
+      <c r="S49" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="33.950000000000003">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>36</v>
@@ -5852,15 +6160,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="33.950000000000003">
+    <row r="51" spans="1:19" ht="33.950000000000003">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>39</v>
@@ -5888,15 +6196,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="33.950000000000003">
+    <row r="52" spans="1:19" ht="33.950000000000003">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>36</v>
@@ -5924,15 +6232,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="51">
+    <row r="53" spans="1:19" ht="51">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>36</v>
@@ -5960,15 +6268,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="17.100000000000001">
+    <row r="54" spans="1:19" ht="17.100000000000001">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>36</v>
@@ -5996,15 +6304,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="17.100000000000001">
+    <row r="55" spans="1:19" ht="46.5">
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>103</v>
+      <c r="B55" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>39</v>
@@ -6014,6 +6322,15 @@
       </c>
       <c r="G55" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M55" s="9" t="str" cm="1">
         <f t="array" ref="M55">PAGE_NAME(B55)</f>
@@ -6031,19 +6348,19 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
-      <c r="W55" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="119.1">
+      <c r="S55" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="119.1">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>39</v>
@@ -6054,8 +6371,8 @@
       <c r="G56" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>115</v>
+      <c r="H56" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="M56" s="9" t="str" cm="1">
         <f t="array" ref="M56">PAGE_NAME(B56)</f>
@@ -6074,15 +6391,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="135.94999999999999">
+    <row r="57" spans="1:19" ht="135.94999999999999">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>32</v>
@@ -6093,8 +6410,8 @@
       <c r="G57" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>117</v>
+      <c r="H57" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="M57" s="9" t="str" cm="1">
         <f t="array" ref="M57">PAGE_NAME(B57)</f>
@@ -6113,15 +6430,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="84.95">
+    <row r="58" spans="1:19" ht="84.95">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>39</v>
@@ -6132,8 +6449,8 @@
       <c r="G58" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>119</v>
+      <c r="H58" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="M58" s="9" t="str" cm="1">
         <f t="array" ref="M58">PAGE_NAME(B58)</f>
@@ -6152,15 +6469,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="84.95">
+    <row r="59" spans="1:19" ht="84.95">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>39</v>
@@ -6171,8 +6488,8 @@
       <c r="G59" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>121</v>
+      <c r="H59" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="M59" s="9" t="str" cm="1">
         <f t="array" ref="M59">PAGE_NAME(B59)</f>
@@ -6191,15 +6508,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="84.95">
+    <row r="60" spans="1:19" ht="84.95">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>36</v>
@@ -6227,15 +6544,15 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="17.100000000000001">
+    <row r="61" spans="1:19" ht="17.100000000000001">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>39</v>
@@ -6263,15 +6580,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="17.100000000000001">
+    <row r="62" spans="1:19" ht="46.5">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>103</v>
+      <c r="B62" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>39</v>
@@ -6281,6 +6598,15 @@
       </c>
       <c r="G62" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I62" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L62" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M62" s="9" t="str" cm="1">
         <f t="array" ref="M62">PAGE_NAME(B62)</f>
@@ -6298,19 +6624,19 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
-      <c r="W62" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="51">
+      <c r="S62" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="51">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>36</v>
@@ -6321,8 +6647,8 @@
       <c r="G63" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H63" s="17" t="s">
-        <v>126</v>
+      <c r="H63" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="M63" s="9" t="str" cm="1">
         <f t="array" ref="M63">PAGE_NAME(B63)</f>
@@ -6341,15 +6667,15 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="51">
+    <row r="64" spans="1:19" ht="51">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>36</v>
@@ -6360,8 +6686,8 @@
       <c r="G64" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H64" s="17" t="s">
-        <v>128</v>
+      <c r="H64" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="M64" s="9" t="str" cm="1">
         <f t="array" ref="M64">PAGE_NAME(B64)</f>
@@ -6380,15 +6706,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="68.099999999999994">
+    <row r="65" spans="1:19" ht="68.099999999999994">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>39</v>
@@ -6399,8 +6725,8 @@
       <c r="G65" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H65" s="17" t="s">
-        <v>128</v>
+      <c r="H65" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="M65" s="9" t="str" cm="1">
         <f t="array" ref="M65">PAGE_NAME(B65)</f>
@@ -6419,15 +6745,15 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="84.95">
+    <row r="66" spans="1:19" ht="84.95">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>32</v>
@@ -6438,8 +6764,8 @@
       <c r="G66" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="17" t="s">
-        <v>131</v>
+      <c r="H66" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="M66" s="9" t="str" cm="1">
         <f t="array" ref="M66">PAGE_NAME(B66)</f>
@@ -6458,15 +6784,15 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="84.95">
+    <row r="67" spans="1:19" ht="84.95">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>32</v>
@@ -6477,8 +6803,8 @@
       <c r="G67" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H67" s="17" t="s">
-        <v>133</v>
+      <c r="H67" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
         <f t="array" ref="M67">PAGE_NAME(B67)</f>
@@ -6497,15 +6823,15 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="102">
+    <row r="68" spans="1:19" ht="102">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>39</v>
@@ -6516,8 +6842,8 @@
       <c r="G68" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="17" t="s">
-        <v>128</v>
+      <c r="H68" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
         <f t="array" ref="M68">PAGE_NAME(B68)</f>
@@ -6536,15 +6862,15 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="237.95">
+    <row r="69" spans="1:19" ht="237.95">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>32</v>
@@ -6555,8 +6881,8 @@
       <c r="G69" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>136</v>
+      <c r="H69" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
         <f t="array" ref="M69">PAGE_NAME(B69)</f>
@@ -6575,15 +6901,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="51">
+    <row r="70" spans="1:19" ht="51">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>32</v>
@@ -6594,8 +6920,8 @@
       <c r="G70" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H70" s="17" t="s">
-        <v>138</v>
+      <c r="H70" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
         <f t="array" ref="M70">PAGE_NAME(B70)</f>
@@ -6614,15 +6940,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="84.95">
+    <row r="71" spans="1:19" ht="84.95">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>32</v>
@@ -6633,8 +6959,8 @@
       <c r="G71" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>140</v>
+      <c r="H71" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="M71" s="9" t="str" cm="1">
         <f t="array" ref="M71">PAGE_NAME(B71)</f>
@@ -6653,15 +6979,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="84.95">
+    <row r="72" spans="1:19" ht="84.95">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>32</v>
@@ -6672,8 +6998,8 @@
       <c r="G72" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H72" s="17" t="s">
-        <v>142</v>
+      <c r="H72" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="M72" s="9" t="str" cm="1">
         <f t="array" ref="M72">PAGE_NAME(B72)</f>
@@ -6692,15 +7018,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="84.95">
+    <row r="73" spans="1:19" ht="84.95">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>39</v>
@@ -6711,8 +7037,8 @@
       <c r="G73" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H73" s="17" t="s">
-        <v>144</v>
+      <c r="H73" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="M73" s="9" t="str" cm="1">
         <f t="array" ref="M73">PAGE_NAME(B73)</f>
@@ -6731,15 +7057,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="17.100000000000001">
+    <row r="74" spans="1:19" ht="17.100000000000001">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>39</v>
@@ -6764,21 +7090,30 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="17.100000000000001">
+    <row r="75" spans="1:19" ht="46.5">
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>103</v>
+      <c r="B75" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="I75" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K75" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L75" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M75" s="9" t="str" cm="1">
         <f t="array" ref="M75">PAGE_NAME(B75)</f>
@@ -6796,19 +7131,19 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W75" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="51">
+      <c r="S75" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="51">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>32</v>
@@ -6819,8 +7154,8 @@
       <c r="G76" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H76" s="17" t="s">
-        <v>148</v>
+      <c r="H76" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="M76" s="9" t="str" cm="1">
         <f t="array" ref="M76">PAGE_NAME(B76)</f>
@@ -6839,15 +7174,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="51">
+    <row r="77" spans="1:19" ht="51">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>32</v>
@@ -6858,8 +7193,8 @@
       <c r="G77" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H77" s="17" t="s">
-        <v>148</v>
+      <c r="H77" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="M77" s="9" t="str" cm="1">
         <f t="array" ref="M77">PAGE_NAME(B77)</f>
@@ -6878,15 +7213,15 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="51">
+    <row r="78" spans="1:19" ht="51">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>36</v>
@@ -6897,8 +7232,8 @@
       <c r="G78" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H78" s="17" t="s">
-        <v>148</v>
+      <c r="H78" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
         <f t="array" ref="M78">PAGE_NAME(B78)</f>
@@ -6917,15 +7252,15 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="102">
+    <row r="79" spans="1:19" ht="102">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>32</v>
@@ -6936,8 +7271,8 @@
       <c r="G79" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H79" s="17" t="s">
-        <v>152</v>
+      <c r="H79" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="M79" s="9" t="str" cm="1">
         <f t="array" ref="M79">PAGE_NAME(B79)</f>
@@ -6956,15 +7291,15 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="51">
+    <row r="80" spans="1:19" ht="51">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>32</v>
@@ -6975,8 +7310,8 @@
       <c r="G80" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H80" s="17" t="s">
-        <v>148</v>
+      <c r="H80" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="M80" s="9" t="str" cm="1">
         <f t="array" ref="M80">PAGE_NAME(B80)</f>
@@ -6995,15 +7330,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="84.95">
+    <row r="81" spans="1:19" ht="84.95">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>32</v>
@@ -7014,8 +7349,8 @@
       <c r="G81" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H81" s="17" t="s">
-        <v>148</v>
+      <c r="H81" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="M81" s="9" t="str" cm="1">
         <f t="array" ref="M81">PAGE_NAME(B81)</f>
@@ -7034,15 +7369,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="51">
+    <row r="82" spans="1:19" ht="51">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>32</v>
@@ -7053,8 +7388,8 @@
       <c r="G82" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H82" s="17" t="s">
-        <v>156</v>
+      <c r="H82" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="M82" s="9" t="str" cm="1">
         <f t="array" ref="M82">PAGE_NAME(B82)</f>
@@ -7073,15 +7408,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="68.099999999999994">
+    <row r="83" spans="1:19" ht="68.099999999999994">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>39</v>
@@ -7092,8 +7427,8 @@
       <c r="G83" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H83" s="17" t="s">
-        <v>158</v>
+      <c r="H83" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="M83" s="9" t="str" cm="1">
         <f t="array" ref="M83">PAGE_NAME(B83)</f>
@@ -7112,15 +7447,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="17.100000000000001">
+    <row r="84" spans="1:19" ht="17.100000000000001">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>39</v>
@@ -7148,15 +7483,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="17.100000000000001">
+    <row r="85" spans="1:19" ht="46.5">
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>103</v>
+      <c r="B85" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>39</v>
@@ -7166,6 +7501,15 @@
       </c>
       <c r="G85" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K85" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L85" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M85" s="9" t="str" cm="1">
         <f t="array" ref="M85">PAGE_NAME(B85)</f>
@@ -7183,22 +7527,22 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W85" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="68.099999999999994">
+      <c r="S85" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="51">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>33</v>
@@ -7206,8 +7550,8 @@
       <c r="G86" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H86" s="17" t="s">
-        <v>163</v>
+      <c r="H86" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="M86" s="9" t="str" cm="1">
         <f t="array" ref="M86">PAGE_NAME(B86)</f>
@@ -7226,15 +7570,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="84.95">
+    <row r="87" spans="1:19" ht="84.95">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>32</v>
@@ -7245,8 +7589,8 @@
       <c r="G87" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H87" s="17" t="s">
-        <v>165</v>
+      <c r="H87" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="M87" s="9" t="str" cm="1">
         <f t="array" ref="M87">PAGE_NAME(B87)</f>
@@ -7265,15 +7609,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="102">
+    <row r="88" spans="1:19" ht="102">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>32</v>
@@ -7284,8 +7628,8 @@
       <c r="G88" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H88" s="17" t="s">
-        <v>167</v>
+      <c r="H88" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="M88" s="9" t="str" cm="1">
         <f t="array" ref="M88">PAGE_NAME(B88)</f>
@@ -7304,15 +7648,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="84.95">
+    <row r="89" spans="1:19" ht="84.95">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>32</v>
@@ -7323,8 +7667,8 @@
       <c r="G89" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H89" s="17" t="s">
-        <v>169</v>
+      <c r="H89" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="M89" s="9" t="str" cm="1">
         <f t="array" ref="M89">PAGE_NAME(B89)</f>
@@ -7343,15 +7687,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="68.099999999999994">
+    <row r="90" spans="1:19" ht="68.099999999999994">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>39</v>
@@ -7362,8 +7706,8 @@
       <c r="G90" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H90" s="17" t="s">
-        <v>171</v>
+      <c r="H90" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
@@ -7382,15 +7726,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="33.950000000000003">
+    <row r="91" spans="1:19" ht="33.950000000000003">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>39</v>
@@ -7418,15 +7762,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="33.950000000000003">
+    <row r="92" spans="1:19" ht="46.5">
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>103</v>
+      <c r="B92" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>39</v>
@@ -7436,6 +7780,15 @@
       </c>
       <c r="G92" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K92" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L92" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M92" s="9" t="str" cm="1">
         <f t="array" ref="M92">PAGE_NAME(B92)</f>
@@ -7453,19 +7806,19 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W92" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="68.099999999999994">
+      <c r="S92" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="68.099999999999994">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>36</v>
@@ -7476,8 +7829,8 @@
       <c r="G93" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="17" t="s">
-        <v>175</v>
+      <c r="H93" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="M93" s="9" t="str" cm="1">
         <f t="array" ref="M93">PAGE_NAME(B93)</f>
@@ -7496,15 +7849,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="68.099999999999994">
+    <row r="94" spans="1:19" ht="68.099999999999994">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>32</v>
@@ -7515,8 +7868,8 @@
       <c r="G94" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H94" s="17" t="s">
-        <v>177</v>
+      <c r="H94" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="M94" s="9" t="str" cm="1">
         <f t="array" ref="M94">PAGE_NAME(B94)</f>
@@ -7535,15 +7888,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="68.099999999999994">
+    <row r="95" spans="1:19" ht="68.099999999999994">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>39</v>
@@ -7554,8 +7907,8 @@
       <c r="G95" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="17" t="s">
-        <v>177</v>
+      <c r="H95" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="M95" s="9" t="str" cm="1">
         <f t="array" ref="M95">PAGE_NAME(B95)</f>
@@ -7574,15 +7927,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="51">
+    <row r="96" spans="1:19" ht="92.25">
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>103</v>
+      <c r="B96" s="65" t="s">
+        <v>114</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>39</v>
@@ -7591,10 +7944,19 @@
         <v>57</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G96" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I96" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K96" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L96" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
@@ -7612,16 +7974,19 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" ht="68.099999999999994">
+      <c r="S96" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="68.099999999999994">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>36</v>
@@ -7630,13 +7995,13 @@
         <v>33</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G97" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H97" s="17" t="s">
-        <v>175</v>
+      <c r="H97" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="M97" s="9" t="str" cm="1">
         <f t="array" ref="M97">PAGE_NAME(B97)</f>
@@ -7655,15 +8020,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="84.95">
+    <row r="98" spans="1:19" ht="84.95">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>36</v>
@@ -7674,8 +8039,8 @@
       <c r="G98" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H98" s="17" t="s">
-        <v>175</v>
+      <c r="H98" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(B98)</f>
@@ -7694,18 +8059,18 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="51">
+    <row r="99" spans="1:19" ht="51">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>33</v>
@@ -7713,8 +8078,8 @@
       <c r="G99" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H99" s="17" t="s">
-        <v>175</v>
+      <c r="H99" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="M99" s="9" t="str" cm="1">
         <f t="array" ref="M99">PAGE_NAME(B99)</f>
@@ -7733,15 +8098,15 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="84.95">
+    <row r="100" spans="1:19" ht="84.95">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>36</v>
@@ -7752,8 +8117,8 @@
       <c r="G100" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H100" s="17" t="s">
-        <v>175</v>
+      <c r="H100" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="M100" s="9" t="str" cm="1">
         <f t="array" ref="M100">PAGE_NAME(B100)</f>
@@ -7772,15 +8137,15 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="68.099999999999994">
+    <row r="101" spans="1:19" ht="68.099999999999994">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>39</v>
@@ -7791,8 +8156,8 @@
       <c r="G101" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H101" s="17" t="s">
-        <v>175</v>
+      <c r="H101" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="M101" s="9" t="str" cm="1">
         <f t="array" ref="M101">PAGE_NAME(B101)</f>
@@ -7811,15 +8176,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="17.100000000000001">
+    <row r="102" spans="1:19" ht="17.100000000000001">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>39</v>
@@ -7847,15 +8212,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="17.100000000000001">
+    <row r="103" spans="1:19" ht="46.5">
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>103</v>
+      <c r="B103" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>39</v>
@@ -7865,6 +8230,15 @@
       </c>
       <c r="G103" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I103" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
         <f t="array" ref="M103">PAGE_NAME(B103)</f>
@@ -7882,19 +8256,19 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W103" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="84.95">
+      <c r="S103" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="84.95">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>36</v>
@@ -7905,8 +8279,8 @@
       <c r="G104" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H104" s="17" t="s">
-        <v>189</v>
+      <c r="H104" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
         <f t="array" ref="M104">PAGE_NAME(B104)</f>
@@ -7925,18 +8299,18 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="33.950000000000003">
+    <row r="105" spans="1:19" ht="174">
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>106</v>
+      <c r="B105" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>57</v>
@@ -7944,8 +8318,17 @@
       <c r="G105" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H105" s="17" t="s">
-        <v>189</v>
+      <c r="H105" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K105" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L105" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
@@ -7963,19 +8346,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W105" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="51">
+      <c r="S105" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="51">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>32</v>
@@ -7986,8 +8369,8 @@
       <c r="G106" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H106" s="17" t="s">
-        <v>192</v>
+      <c r="H106" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
         <f t="array" ref="M106">PAGE_NAME(B106)</f>
@@ -8006,15 +8389,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="51">
+    <row r="107" spans="1:19" ht="51">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>39</v>
@@ -8025,8 +8408,8 @@
       <c r="G107" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H107" s="17" t="s">
-        <v>192</v>
+      <c r="H107" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
         <f t="array" ref="M107">PAGE_NAME(B107)</f>
@@ -8045,15 +8428,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="68.099999999999994">
+    <row r="108" spans="1:19" ht="68.099999999999994">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>39</v>
@@ -8081,15 +8464,15 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="84.95">
+    <row r="109" spans="1:19" ht="84.95">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>32</v>
@@ -8100,8 +8483,8 @@
       <c r="G109" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H109" s="17" t="s">
-        <v>196</v>
+      <c r="H109" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="M109" s="9" t="str" cm="1">
         <f t="array" ref="M109">PAGE_NAME(B109)</f>
@@ -8120,15 +8503,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="102">
+    <row r="110" spans="1:19" ht="102">
       <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>36</v>
@@ -8136,12 +8519,12 @@
       <c r="E110" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F110" s="30"/>
+      <c r="F110" s="29"/>
       <c r="G110" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H110" s="17" t="s">
-        <v>198</v>
+      <c r="H110" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="M110" s="9" t="str" cm="1">
         <f t="array" ref="M110">PAGE_NAME(B110)</f>
@@ -8160,15 +8543,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="102">
+    <row r="111" spans="1:19" ht="102">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>36</v>
@@ -8179,8 +8562,8 @@
       <c r="G111" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H111" s="17" t="s">
-        <v>200</v>
+      <c r="H111" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="M111" s="9" t="str" cm="1">
         <f t="array" ref="M111">PAGE_NAME(B111)</f>
@@ -8199,15 +8582,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="119.1">
+    <row r="112" spans="1:19" ht="119.1">
       <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>36</v>
@@ -8218,8 +8601,8 @@
       <c r="G112" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H112" s="17" t="s">
-        <v>198</v>
+      <c r="H112" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
         <f t="array" ref="M112">PAGE_NAME(B112)</f>
@@ -8238,15 +8621,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="119.1">
+    <row r="113" spans="1:23" ht="119.1">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>36</v>
@@ -8257,8 +8640,8 @@
       <c r="G113" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H113" s="17" t="s">
-        <v>200</v>
+      <c r="H113" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
         <f t="array" ref="M113">PAGE_NAME(B113)</f>
@@ -8277,15 +8660,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="51">
+    <row r="114" spans="1:23" ht="46.5">
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>203</v>
+      <c r="B114" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>39</v>
@@ -8295,6 +8678,15 @@
       </c>
       <c r="G114" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I114" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K114" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L114" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="M114" s="9" t="str" cm="1">
         <f t="array" ref="M114">PAGE_NAME(B114)</f>
@@ -8312,28 +8704,37 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W114" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" ht="33.950000000000003">
+      <c r="S114" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="43.5">
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>203</v>
+      <c r="B115" s="65" t="s">
+        <v>218</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G115" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I115" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K115" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L115" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
@@ -8351,19 +8752,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W115" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" ht="51">
+      <c r="S115" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="46.5">
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>203</v>
+      <c r="B116" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>32</v>
@@ -8390,19 +8791,19 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
-      <c r="X116" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" ht="33.950000000000003">
+      <c r="W116" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="46.5">
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>203</v>
+      <c r="B117" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>39</v>
@@ -8412,6 +8813,15 @@
       </c>
       <c r="G117" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I117" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K117" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L117" s="30" t="s">
+        <v>223</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
         <f t="array" ref="M117">PAGE_NAME(B117)</f>
@@ -8429,19 +8839,19 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W117" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" ht="68.099999999999994">
+      <c r="S117" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="68.099999999999994">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>36</v>
@@ -8469,15 +8879,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="84.95">
+    <row r="119" spans="1:23" ht="84.95">
       <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>32</v>
@@ -8488,8 +8898,8 @@
       <c r="G119" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H119" s="17" t="s">
-        <v>211</v>
+      <c r="H119" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
         <f t="array" ref="M119">PAGE_NAME(B119)</f>
@@ -8508,15 +8918,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="84.95">
+    <row r="120" spans="1:23" ht="140.25" customHeight="1">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>212</v>
+      <c r="B120" s="65" t="s">
+        <v>228</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>39</v>
@@ -8525,13 +8935,19 @@
         <v>57</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="G120" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H120" s="17" t="s">
-        <v>215</v>
+      <c r="H120" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="I120" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K120" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M120" s="9" t="str" cm="1">
         <f t="array" ref="M120">PAGE_NAME(B120)</f>
@@ -8549,19 +8965,22 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W120" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" ht="68.099999999999994">
+      <c r="S120" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T120" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="68.099999999999994">
       <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>39</v>
@@ -8572,8 +8991,8 @@
       <c r="G121" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H121" s="17" t="s">
-        <v>217</v>
+      <c r="H121" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
         <f t="array" ref="M121">PAGE_NAME(B121)</f>
@@ -8592,15 +9011,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="51">
+    <row r="122" spans="1:23" ht="51">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>39</v>
@@ -8611,8 +9030,8 @@
       <c r="G122" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H122" s="17" t="s">
-        <v>217</v>
+      <c r="H122" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="M122" s="9" t="str" cm="1">
         <f t="array" ref="M122">PAGE_NAME(B122)</f>
@@ -8631,15 +9050,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="84.95">
+    <row r="123" spans="1:23" ht="84.95">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>36</v>
@@ -8650,8 +9069,8 @@
       <c r="G123" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="17" t="s">
-        <v>220</v>
+      <c r="H123" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="M123" s="9" t="str" cm="1">
         <f t="array" ref="M123">PAGE_NAME(B123)</f>
@@ -8670,15 +9089,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="68.099999999999994">
+    <row r="124" spans="1:23" ht="150.75" customHeight="1">
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>221</v>
+      <c r="B124" s="65" t="s">
+        <v>238</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>39</v>
@@ -8687,13 +9106,19 @@
         <v>57</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="G124" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H124" s="17" t="s">
-        <v>223</v>
+      <c r="H124" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K124" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M124" s="9" t="str" cm="1">
         <f t="array" ref="M124">PAGE_NAME(B124)</f>
@@ -8711,19 +9136,22 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W124" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" ht="33.950000000000003">
+      <c r="S124" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T124" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="225" customHeight="1">
       <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>221</v>
+      <c r="B125" s="65" t="s">
+        <v>238</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>32</v>
@@ -8734,8 +9162,17 @@
       <c r="G125" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="17" t="s">
-        <v>225</v>
+      <c r="H125" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I125" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K125" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L125" s="30" t="s">
+        <v>244</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
         <f t="array" ref="M125">PAGE_NAME(B125)</f>
@@ -8753,19 +9190,25 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W125" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" ht="68.099999999999994">
+      <c r="S125" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T125" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="V125" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="68.099999999999994">
       <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>32</v>
@@ -8776,8 +9219,8 @@
       <c r="G126" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H126" s="17" t="s">
-        <v>227</v>
+      <c r="H126" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="M126" s="9" t="str" cm="1">
         <f t="array" ref="M126">PAGE_NAME(B126)</f>
@@ -8796,15 +9239,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="51">
+    <row r="127" spans="1:23" ht="242.25" customHeight="1">
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>221</v>
+      <c r="B127" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>32</v>
@@ -8815,8 +9258,14 @@
       <c r="G127" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H127" s="17" t="s">
-        <v>229</v>
+      <c r="H127" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I127" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K127" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M127" s="9" t="str" cm="1">
         <f t="array" ref="M127">PAGE_NAME(B127)</f>
@@ -8834,19 +9283,22 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
-      <c r="W127" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24" ht="33.950000000000003">
+      <c r="S127" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T127" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="33.950000000000003">
       <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>32</v>
@@ -8857,8 +9309,8 @@
       <c r="G128" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H128" s="17" t="s">
-        <v>227</v>
+      <c r="H128" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="M128" s="9" t="str" cm="1">
         <f t="array" ref="M128">PAGE_NAME(B128)</f>
@@ -8877,15 +9329,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="84.95">
+    <row r="129" spans="1:23" ht="84.95">
       <c r="A129" s="7">
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>32</v>
@@ -8896,8 +9348,8 @@
       <c r="G129" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H129" s="17" t="s">
-        <v>232</v>
+      <c r="H129" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="M129" s="9" t="str" cm="1">
         <f t="array" ref="M129">PAGE_NAME(B129)</f>
@@ -8916,15 +9368,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="51">
+    <row r="130" spans="1:23" ht="51">
       <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>39</v>
@@ -8935,8 +9387,8 @@
       <c r="G130" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H130" s="17" t="s">
-        <v>234</v>
+      <c r="H130" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="M130" s="9" t="str" cm="1">
         <f t="array" ref="M130">PAGE_NAME(B130)</f>
@@ -8955,15 +9407,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="51">
+    <row r="131" spans="1:23" ht="202.5" customHeight="1">
       <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>221</v>
+      <c r="B131" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>32</v>
@@ -8974,8 +9426,14 @@
       <c r="G131" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H131" s="17" t="s">
-        <v>236</v>
+      <c r="H131" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="I131" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K131" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M131" s="9" t="str" cm="1">
         <f t="array" ref="M131">PAGE_NAME(B131)</f>
@@ -8993,19 +9451,22 @@
         <f t="shared" si="4"/>
         <v>Client</v>
       </c>
-      <c r="W131" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24" ht="68.099999999999994">
+      <c r="S131" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T131" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="68.099999999999994">
       <c r="A132" s="7">
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>32</v>
@@ -9016,8 +9477,8 @@
       <c r="G132" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H132" s="17" t="s">
-        <v>238</v>
+      <c r="H132" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="M132" s="9" t="str" cm="1">
         <f t="array" ref="M132">PAGE_NAME(B132)</f>
@@ -9036,15 +9497,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="33.950000000000003">
+    <row r="133" spans="1:23" ht="51">
       <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>36</v>
@@ -9065,22 +9526,22 @@
       </c>
       <c r="O133" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P133" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:24" ht="51">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="51">
       <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>39</v>
@@ -9108,15 +9569,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="51">
+    <row r="135" spans="1:23" ht="51">
       <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>39</v>
@@ -9144,15 +9605,15 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="33.950000000000003">
+    <row r="136" spans="1:23" ht="46.5">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>239</v>
+      <c r="B136" s="65" t="s">
+        <v>262</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>39</v>
@@ -9179,19 +9640,19 @@
         <f t="shared" si="4"/>
         <v>Client</v>
       </c>
-      <c r="X136" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24" ht="33.950000000000003">
+      <c r="W136" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="51">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>36</v>
@@ -9202,10 +9663,10 @@
       <c r="G137" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="32"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
+      <c r="L137" s="31"/>
       <c r="M137" s="9" t="str" cm="1">
         <f t="array" ref="M137">PAGE_NAME(B137)</f>
         <v>export</v>
@@ -9216,23 +9677,23 @@
       </c>
       <c r="O137" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P137" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>Server</v>
       </c>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="1:24" ht="51">
+    <row r="138" spans="1:23" ht="68.099999999999994">
       <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>36</v>
@@ -9243,8 +9704,8 @@
       <c r="G138" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H138" s="17" t="s">
-        <v>247</v>
+      <c r="H138" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="M138" s="9" t="str" cm="1">
         <f t="array" ref="M138">PAGE_NAME(B138)</f>
@@ -9256,22 +9717,22 @@
       </c>
       <c r="O138" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P138" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:24" ht="33.950000000000003">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="68.099999999999994">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>32</v>
@@ -9296,18 +9757,18 @@
       </c>
       <c r="P139" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:24" ht="119.1">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="119.1">
       <c r="A140" s="7">
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>39</v>
@@ -9318,8 +9779,8 @@
       <c r="G140" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H140" s="17" t="s">
-        <v>250</v>
+      <c r="H140" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="M140" s="9" t="str" cm="1">
         <f t="array" ref="M140">PAGE_NAME(B140)</f>
@@ -9338,15 +9799,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="119.1">
+    <row r="141" spans="1:23" ht="119.1">
       <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>32</v>
@@ -9357,8 +9818,8 @@
       <c r="G141" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H141" s="17" t="s">
-        <v>252</v>
+      <c r="H141" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="M141" s="9" t="str" cm="1">
         <f t="array" ref="M141">PAGE_NAME(B141)</f>
@@ -9377,15 +9838,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="51">
+    <row r="142" spans="1:23" ht="51">
       <c r="A142" s="7">
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>39</v>
@@ -9396,8 +9857,8 @@
       <c r="G142" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H142" s="17" t="s">
-        <v>254</v>
+      <c r="H142" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="M142" s="9" t="str" cm="1">
         <f t="array" ref="M142">PAGE_NAME(B142)</f>
@@ -9416,15 +9877,15 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="119.1">
+    <row r="143" spans="1:23" ht="119.1">
       <c r="A143" s="7">
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>36</v>
@@ -9435,8 +9896,8 @@
       <c r="G143" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H143" s="17" t="s">
-        <v>256</v>
+      <c r="H143" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="M143" s="9" t="str" cm="1">
         <f t="array" ref="M143">PAGE_NAME(B143)</f>
@@ -9455,15 +9916,15 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="33.950000000000003">
+    <row r="144" spans="1:23" ht="33.950000000000003">
       <c r="A144" s="7">
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>36</v>
@@ -9474,8 +9935,8 @@
       <c r="G144" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H144" s="17" t="s">
-        <v>258</v>
+      <c r="H144" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="M144" s="9" t="str" cm="1">
         <f t="array" ref="M144">PAGE_NAME(B144)</f>
@@ -9494,15 +9955,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="33.950000000000003">
+    <row r="145" spans="1:23" ht="51">
       <c r="A145" s="7">
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>36</v>
@@ -9523,22 +9984,22 @@
       </c>
       <c r="O145" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P145" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:23" ht="33.950000000000003">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="68.099999999999994">
       <c r="A146" s="7">
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>36</v>
@@ -9559,22 +10020,22 @@
       </c>
       <c r="O146" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P146" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:23" ht="68.099999999999994">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="84.95">
       <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>32</v>
@@ -9601,19 +10062,17 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
-      <c r="W147" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" ht="51">
+      <c r="W147" s="13"/>
+    </row>
+    <row r="148" spans="1:23" ht="84.95">
       <c r="A148" s="7">
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>36</v>
@@ -9634,22 +10093,22 @@
       </c>
       <c r="O148" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P148" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:23" ht="33.950000000000003">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="68.099999999999994">
       <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>36</v>
@@ -9674,18 +10133,18 @@
       </c>
       <c r="P149" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Client</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" ht="51">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="84.95">
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>259</v>
+      <c r="B150" s="64" t="s">
+        <v>288</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>39</v>
@@ -9698,11 +10157,11 @@
       </c>
       <c r="M150" s="9" t="str" cm="1">
         <f t="array" ref="M150">PAGE_NAME(B150)</f>
-        <v>export</v>
+        <v/>
       </c>
       <c r="N150" s="9" t="str" cm="1">
         <f t="array" ref="N150">SECTION_NAME(B150)</f>
-        <v>response---complete-status</v>
+        <v/>
       </c>
       <c r="O150" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9718,10 +10177,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>36</v>
@@ -9754,10 +10213,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>36</v>
@@ -9790,10 +10249,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>36</v>
@@ -9826,10 +10285,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>32</v>
@@ -9862,10 +10321,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>36</v>
@@ -9898,10 +10357,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>36</v>
@@ -9934,10 +10393,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>36</v>
@@ -9970,10 +10429,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>36</v>
@@ -10006,10 +10465,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>36</v>
@@ -10020,8 +10479,8 @@
       <c r="G159" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H159" s="17" t="s">
-        <v>276</v>
+      <c r="H159" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="M159" s="9" t="str" cm="1">
         <f t="array" ref="M159">PAGE_NAME(B159)</f>
@@ -10045,10 +10504,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>36</v>
@@ -10081,10 +10540,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>36</v>
@@ -10117,10 +10576,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>36</v>
@@ -10153,10 +10612,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>36</v>
@@ -10167,8 +10626,8 @@
       <c r="G163" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H163" s="17" t="s">
-        <v>281</v>
+      <c r="H163" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="M163" s="9" t="str" cm="1">
         <f t="array" ref="M163">PAGE_NAME(B163)</f>
@@ -10192,10 +10651,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>39</v>
@@ -10228,10 +10687,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>36</v>
@@ -10264,10 +10723,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>36</v>
@@ -10300,10 +10759,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>36</v>
@@ -10336,10 +10795,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>32</v>
@@ -10350,8 +10809,8 @@
       <c r="G168" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H168" s="17" t="s">
-        <v>287</v>
+      <c r="H168" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="M168" s="9" t="str" cm="1">
         <f t="array" ref="M168">PAGE_NAME(B168)</f>
@@ -10375,10 +10834,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>36</v>
@@ -10387,7 +10846,7 @@
         <v>33</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="G169" s="7" t="b">
         <v>0</v>
@@ -10414,10 +10873,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>36</v>
@@ -10436,9 +10895,9 @@
         <f t="array" ref="N170">SECTION_NAME(B170)</f>
         <v>response---complete-status</v>
       </c>
-      <c r="O170" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="O170" s="10" t="str" cm="1">
+        <f t="array" ref="O170">SECTION_NAME(B169)</f>
+        <v>response---complete-status</v>
       </c>
       <c r="P170" s="10" t="str">
         <f t="shared" si="4"/>
@@ -10450,10 +10909,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>36</v>
@@ -10486,10 +10945,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>39</v>
@@ -10522,10 +10981,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>39</v>
@@ -10558,10 +11017,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>32</v>
@@ -10572,8 +11031,8 @@
       <c r="G174" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H174" s="17" t="s">
-        <v>295</v>
+      <c r="H174" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="M174" s="9" t="str" cm="1">
         <f t="array" ref="M174">PAGE_NAME(B174)</f>
@@ -10597,10 +11056,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>39</v>
@@ -10633,10 +11092,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>36</v>
@@ -10669,10 +11128,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>32</v>
@@ -10705,10 +11164,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>39</v>
@@ -10717,7 +11176,7 @@
         <v>33</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="G178" s="7" t="b">
         <v>0</v>
@@ -10744,10 +11203,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>36</v>
@@ -10780,10 +11239,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>39</v>
@@ -10816,10 +11275,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>36</v>
@@ -10847,15 +11306,15 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="84.95">
+    <row r="182" spans="1:16" ht="68.099999999999994">
       <c r="A182" s="7">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>36</v>
@@ -10864,7 +11323,7 @@
         <v>33</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="G182" s="7" t="b">
         <v>0</v>
@@ -10891,10 +11350,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>32</v>
@@ -10905,8 +11364,8 @@
       <c r="G183" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H183" s="17" t="s">
-        <v>307</v>
+      <c r="H183" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="M183" s="9" t="str" cm="1">
         <f t="array" ref="M183">PAGE_NAME(B183)</f>
@@ -10930,10 +11389,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>39</v>
@@ -10944,8 +11403,8 @@
       <c r="G184" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H184" s="17" t="s">
-        <v>309</v>
+      <c r="H184" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="M184" s="9" t="str" cm="1">
         <f t="array" ref="M184">PAGE_NAME(B184)</f>
@@ -10969,10 +11428,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>39</v>
@@ -10983,8 +11442,8 @@
       <c r="G185" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H185" s="17" t="s">
-        <v>311</v>
+      <c r="H185" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="M185" s="9" t="str" cm="1">
         <f t="array" ref="M185">PAGE_NAME(B185)</f>
@@ -11008,10 +11467,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>39</v>
@@ -11022,8 +11481,8 @@
       <c r="G186" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H186" s="17" t="s">
-        <v>313</v>
+      <c r="H186" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="M186" s="9" t="str" cm="1">
         <f t="array" ref="M186">PAGE_NAME(B186)</f>
@@ -11047,10 +11506,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>36</v>
@@ -11083,10 +11542,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>36</v>
@@ -11119,10 +11578,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>36</v>
@@ -11155,10 +11614,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>36</v>
@@ -11191,10 +11650,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>36</v>
@@ -11227,10 +11686,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>36</v>
@@ -11258,15 +11717,15 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="84.95">
+    <row r="193" spans="1:23" ht="84.95">
       <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>36</v>
@@ -11294,15 +11753,15 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="68.099999999999994">
+    <row r="194" spans="1:23" ht="68.099999999999994">
       <c r="A194" s="7">
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>36</v>
@@ -11311,7 +11770,7 @@
         <v>33</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="G194" s="7" t="b">
         <v>0</v>
@@ -11333,15 +11792,15 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="84.95">
+    <row r="195" spans="1:23" ht="84.95">
       <c r="A195" s="7">
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>32</v>
@@ -11369,15 +11828,15 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="68.099999999999994">
+    <row r="196" spans="1:23" ht="68.099999999999994">
       <c r="A196" s="7">
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>32</v>
@@ -11388,8 +11847,8 @@
       <c r="G196" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H196" s="17" t="s">
-        <v>324</v>
+      <c r="H196" s="16" t="s">
+        <v>347</v>
       </c>
       <c r="M196" s="9" t="str" cm="1">
         <f t="array" ref="M196">PAGE_NAME(B196)</f>
@@ -11408,15 +11867,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="119.1">
+    <row r="197" spans="1:23" ht="119.1">
       <c r="A197" s="7">
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>36</v>
@@ -11444,15 +11903,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="135.94999999999999">
+    <row r="198" spans="1:23" ht="135.94999999999999">
       <c r="A198" s="7">
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>32</v>
@@ -11463,8 +11922,8 @@
       <c r="G198" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H198" s="17" t="s">
-        <v>327</v>
+      <c r="H198" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="M198" s="9" t="str" cm="1">
         <f t="array" ref="M198">PAGE_NAME(B198)</f>
@@ -11483,15 +11942,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="84.95">
+    <row r="199" spans="1:23" ht="84.95">
       <c r="A199" s="7">
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>36</v>
@@ -11519,15 +11978,15 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="84.95">
+    <row r="200" spans="1:23" ht="84.95">
       <c r="A200" s="7">
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>36</v>
@@ -11555,15 +12014,15 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="84.95">
+    <row r="201" spans="1:23" ht="77.25">
       <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="11" t="s">
-        <v>330</v>
+      <c r="B201" s="65" t="s">
+        <v>353</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>39</v>
@@ -11574,8 +12033,14 @@
       <c r="G201" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H201" s="17" t="s">
-        <v>332</v>
+      <c r="H201" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="I201" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K201" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M201" s="9" t="str" cm="1">
         <f t="array" ref="M201">PAGE_NAME(B201)</f>
@@ -11593,22 +12058,25 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="S201" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T201" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="W201" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="X201" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="1:24" ht="51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="243.75" customHeight="1">
       <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>330</v>
+      <c r="B202" s="65" t="s">
+        <v>353</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>36</v>
@@ -11619,8 +12087,14 @@
       <c r="G202" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H202" s="17" t="s">
-        <v>334</v>
+      <c r="H202" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="I202" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K202" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="M202" s="9" t="str" cm="1">
         <f t="array" ref="M202">PAGE_NAME(B202)</f>
@@ -11638,19 +12112,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="W202" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="203" spans="1:24" ht="68.099999999999994">
+      <c r="S202" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T202" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="68.099999999999994">
       <c r="A203" s="7">
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>36</v>
@@ -11678,15 +12155,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="51">
+    <row r="204" spans="1:23" ht="51">
       <c r="A204" s="7">
         <v>203</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>39</v>
@@ -11714,15 +12191,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="33.950000000000003">
+    <row r="205" spans="1:23" ht="51">
       <c r="A205" s="7">
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>36</v>
@@ -11743,28 +12220,28 @@
       </c>
       <c r="O205" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P205" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:24" ht="33.950000000000003">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" ht="46.5">
       <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="7" t="s">
-        <v>339</v>
+      <c r="B206" s="65" t="s">
+        <v>364</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G206" s="7" t="b">
         <v>0</v>
@@ -11779,22 +12256,22 @@
       </c>
       <c r="O206" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>MAY</v>
       </c>
       <c r="P206" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:24" ht="17.100000000000001">
+        <v>Client</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="51">
       <c r="A207" s="7">
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>36</v>
@@ -11815,22 +12292,22 @@
       </c>
       <c r="O207" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P207" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:24" ht="33.950000000000003">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="68.099999999999994">
       <c r="A208" s="7">
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>36</v>
@@ -11851,22 +12328,22 @@
       </c>
       <c r="O208" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P208" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:24" ht="51">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" ht="68.099999999999994">
       <c r="A209" s="7">
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>36</v>
@@ -11891,18 +12368,18 @@
       </c>
       <c r="P209" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:24" ht="84.95">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" ht="102">
       <c r="A210" s="7">
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>36</v>
@@ -11923,22 +12400,22 @@
       </c>
       <c r="O210" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P210" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:24" ht="33.950000000000003">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" ht="51">
       <c r="A211" s="7">
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>347</v>
+        <v>371</v>
+      </c>
+      <c r="C211" s="61" t="s">
+        <v>288</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>36</v>
@@ -11959,22 +12436,22 @@
       </c>
       <c r="O211" s="10" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>SHALL</v>
       </c>
       <c r="P211" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:24" ht="68.099999999999994">
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" ht="68.099999999999994">
       <c r="A212" s="7">
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>32</v>
@@ -11985,8 +12462,8 @@
       <c r="G212" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H212" s="17" t="s">
-        <v>349</v>
+      <c r="H212" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="M212" s="9" t="str" cm="1">
         <f t="array" ref="M212">PAGE_NAME(B212)</f>
@@ -12005,15 +12482,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="68.099999999999994">
+    <row r="213" spans="1:19" ht="68.099999999999994">
       <c r="A213" s="7">
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>32</v>
@@ -12024,8 +12501,8 @@
       <c r="G213" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H213" s="17" t="s">
-        <v>349</v>
+      <c r="H213" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="M213" s="9" t="str" cm="1">
         <f t="array" ref="M213">PAGE_NAME(B213)</f>
@@ -12044,15 +12521,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="51">
+    <row r="214" spans="1:19" ht="51">
       <c r="A214" s="7">
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>36</v>
@@ -12063,8 +12540,8 @@
       <c r="G214" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H214" s="17" t="s">
-        <v>352</v>
+      <c r="H214" s="16" t="s">
+        <v>376</v>
       </c>
       <c r="M214" s="9" t="str" cm="1">
         <f t="array" ref="M214">PAGE_NAME(B214)</f>
@@ -12083,15 +12560,15 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="102">
+    <row r="215" spans="1:19" ht="102">
       <c r="A215" s="7">
         <v>214</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>36</v>
@@ -12102,8 +12579,8 @@
       <c r="G215" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H215" s="17" t="s">
-        <v>354</v>
+      <c r="H215" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="M215" s="9" t="str" cm="1">
         <f t="array" ref="M215">PAGE_NAME(B215)</f>
@@ -12122,15 +12599,15 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="102">
+    <row r="216" spans="1:19" ht="102">
       <c r="A216" s="7">
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>36</v>
@@ -12141,8 +12618,8 @@
       <c r="G216" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H216" s="17" t="s">
-        <v>356</v>
+      <c r="H216" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="M216" s="9" t="str" cm="1">
         <f t="array" ref="M216">PAGE_NAME(B216)</f>
@@ -12161,15 +12638,15 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="84.95">
+    <row r="217" spans="1:19" ht="84.95">
       <c r="A217" s="7">
         <v>216</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>36</v>
@@ -12180,8 +12657,8 @@
       <c r="G217" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H217" s="17" t="s">
-        <v>358</v>
+      <c r="H217" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="M217" s="9" t="str" cm="1">
         <f t="array" ref="M217">PAGE_NAME(B217)</f>
@@ -12200,15 +12677,15 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="84.95">
+    <row r="218" spans="1:19" ht="84.95">
       <c r="A218" s="7">
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>32</v>
@@ -12236,15 +12713,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="170.1">
+    <row r="219" spans="1:19" ht="170.1">
       <c r="A219" s="7">
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>32</v>
@@ -12253,7 +12730,7 @@
         <v>33</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="G219" s="7" t="b">
         <v>0</v>
@@ -12275,21 +12752,21 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="68.099999999999994">
+    <row r="220" spans="1:19" ht="68.099999999999994">
       <c r="A220" s="7">
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="G220" s="7" t="b">
         <v>0</v>
@@ -12311,15 +12788,15 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="84.95">
+    <row r="221" spans="1:19" ht="84.95">
       <c r="A221" s="7">
         <v>220</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>32</v>
@@ -12328,7 +12805,7 @@
         <v>33</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="G221" s="7" t="b">
         <v>0</v>
@@ -12350,15 +12827,15 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="68.099999999999994">
+    <row r="222" spans="1:19" ht="46.5">
       <c r="A222" s="7">
         <v>221</v>
       </c>
-      <c r="B222" s="7" t="s">
-        <v>364</v>
+      <c r="B222" s="65" t="s">
+        <v>388</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>39</v>
@@ -12368,6 +12845,15 @@
       </c>
       <c r="G222" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I222" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K222" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L222" s="30" t="s">
+        <v>394</v>
       </c>
       <c r="M222" s="9" t="str" cm="1">
         <f t="array" ref="M222">PAGE_NAME(B222)</f>
@@ -12385,28 +12871,25 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W222" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="X222" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="223" spans="1:24" ht="68.099999999999994">
+      <c r="S222" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" ht="68.099999999999994">
       <c r="A223" s="7">
         <v>222</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="G223" s="7" t="b">
         <v>0</v>
@@ -12428,15 +12911,15 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="153">
+    <row r="224" spans="1:19" ht="153">
       <c r="A224" s="7">
         <v>223</v>
       </c>
-      <c r="B224" s="42" t="s">
-        <v>370</v>
+      <c r="B224" s="41" t="s">
+        <v>395</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>36</v>
@@ -12445,13 +12928,13 @@
         <v>33</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="G224" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H224" s="17" t="s">
-        <v>374</v>
+      <c r="H224" s="16" t="s">
+        <v>399</v>
       </c>
       <c r="M224" s="9" t="str" cm="1">
         <f t="array" ref="M224">PAGE_NAME(B224)</f>
@@ -12470,15 +12953,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="170.1">
+    <row r="225" spans="1:16" ht="170.1">
       <c r="A225" s="7">
         <v>224</v>
       </c>
-      <c r="B225" s="42" t="s">
-        <v>370</v>
+      <c r="B225" s="41" t="s">
+        <v>395</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>36</v>
@@ -12487,13 +12970,13 @@
         <v>33</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="G225" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H225" s="17" t="s">
-        <v>377</v>
+      <c r="H225" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="M225" s="9" t="str" cm="1">
         <f t="array" ref="M225">PAGE_NAME(B225)</f>
@@ -12512,15 +12995,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="170.1">
+    <row r="226" spans="1:16" ht="170.1">
       <c r="A226" s="7">
         <v>225</v>
       </c>
-      <c r="B226" s="42" t="s">
-        <v>370</v>
+      <c r="B226" s="41" t="s">
+        <v>395</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>36</v>
@@ -12529,13 +13012,13 @@
         <v>33</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="G226" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H226" s="17" t="s">
-        <v>380</v>
+      <c r="H226" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="M226" s="9" t="str" cm="1">
         <f t="array" ref="M226">PAGE_NAME(B226)</f>
@@ -12554,15 +13037,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="51">
+    <row r="227" spans="1:16" ht="51">
       <c r="A227" s="7">
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>36</v>
@@ -12590,15 +13073,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="51">
+    <row r="228" spans="1:16" ht="51">
       <c r="A228" s="7">
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>36</v>
@@ -12607,7 +13090,7 @@
         <v>33</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G228" s="7" t="b">
         <v>0</v>
@@ -12629,15 +13112,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="51">
+    <row r="229" spans="1:16" ht="51">
       <c r="A229" s="7">
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>39</v>
@@ -12646,7 +13129,7 @@
         <v>33</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="G229" s="7" t="b">
         <v>0</v>
@@ -12668,15 +13151,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="51">
+    <row r="230" spans="1:16" ht="51">
       <c r="A230" s="7">
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>36</v>
@@ -12685,7 +13168,7 @@
         <v>33</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G230" s="7" t="b">
         <v>0</v>
@@ -12707,15 +13190,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="33.950000000000003">
+    <row r="231" spans="1:16" ht="33.950000000000003">
       <c r="A231" s="7">
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>36</v>
@@ -12743,15 +13226,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="33.950000000000003">
+    <row r="232" spans="1:16" ht="33.950000000000003">
       <c r="A232" s="7">
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>36</v>
@@ -12779,15 +13262,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="33.950000000000003">
+    <row r="233" spans="1:16" ht="43.5">
       <c r="A233" s="7">
         <v>232</v>
       </c>
-      <c r="B233" s="11" t="s">
-        <v>386</v>
+      <c r="B233" s="65" t="s">
+        <v>411</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>39</v>
@@ -12814,28 +13297,22 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W233" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="234" spans="1:26" ht="51">
+    </row>
+    <row r="234" spans="1:16" ht="17.100000000000001">
       <c r="A234" s="7">
         <v>233</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F234" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G234" s="7" t="b">
         <v>0</v>
@@ -12857,15 +13334,15 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="17.100000000000001">
+    <row r="235" spans="1:16" ht="17.100000000000001">
       <c r="A235" s="7">
         <v>234</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>36</v>
@@ -12893,15 +13370,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="17.100000000000001">
+    <row r="236" spans="1:16" ht="46.5">
       <c r="A236" s="7">
         <v>235</v>
       </c>
-      <c r="B236" s="7" t="s">
-        <v>386</v>
+      <c r="B236" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>39</v>
@@ -12928,28 +13405,22 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W236" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="237" spans="1:26" ht="51">
+    </row>
+    <row r="237" spans="1:16" ht="17.100000000000001">
       <c r="A237" s="7">
         <v>236</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G237" s="7" t="b">
         <v>0</v>
@@ -12971,15 +13442,15 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="17.100000000000001">
+    <row r="238" spans="1:16" ht="17.100000000000001">
       <c r="A238" s="7">
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>39</v>
@@ -13007,15 +13478,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="17.100000000000001">
+    <row r="239" spans="1:16" ht="46.5">
       <c r="A239" s="7">
         <v>238</v>
       </c>
-      <c r="B239" s="7" t="s">
-        <v>386</v>
+      <c r="B239" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>39</v>
@@ -13042,34 +13513,22 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W239" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y239" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z239" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="240" spans="1:26" ht="51">
+    </row>
+    <row r="240" spans="1:16" ht="17.100000000000001">
       <c r="A240" s="7">
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F240" s="8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G240" s="7" t="b">
         <v>0</v>
@@ -13091,15 +13550,15 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="17.100000000000001">
+    <row r="241" spans="1:19" ht="17.100000000000001">
       <c r="A241" s="7">
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>39</v>
@@ -13127,15 +13586,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="17.100000000000001">
+    <row r="242" spans="1:19" ht="46.5">
       <c r="A242" s="7">
         <v>241</v>
       </c>
-      <c r="B242" s="7" t="s">
-        <v>386</v>
+      <c r="B242" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>39</v>
@@ -13162,28 +13621,22 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W242" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="243" spans="1:26" ht="51">
+    </row>
+    <row r="243" spans="1:19" ht="17.100000000000001">
       <c r="A243" s="7">
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F243" s="8" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G243" s="7" t="b">
         <v>0</v>
@@ -13205,15 +13658,15 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="33.950000000000003">
+    <row r="244" spans="1:19" ht="33.950000000000003">
       <c r="A244" s="7">
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>39</v>
@@ -13241,15 +13694,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="33.950000000000003">
+    <row r="245" spans="1:19" ht="46.5">
       <c r="A245" s="7">
         <v>244</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>386</v>
+      <c r="B245" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>39</v>
@@ -13276,28 +13729,22 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W245" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="246" spans="1:26" ht="51">
+    </row>
+    <row r="246" spans="1:19" ht="17.100000000000001">
       <c r="A246" s="7">
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F246" s="8" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G246" s="7" t="b">
         <v>0</v>
@@ -13319,15 +13766,15 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="17.100000000000001">
+    <row r="247" spans="1:19" ht="17.100000000000001">
       <c r="A247" s="7">
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>39</v>
@@ -13355,15 +13802,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="17.100000000000001">
+    <row r="248" spans="1:19" ht="46.5">
       <c r="A248" s="7">
         <v>247</v>
       </c>
-      <c r="B248" s="7" t="s">
-        <v>386</v>
+      <c r="B248" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>39</v>
@@ -13390,28 +13837,22 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W248" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="249" spans="1:26" ht="51">
+    </row>
+    <row r="249" spans="1:19" ht="17.100000000000001">
       <c r="A249" s="7">
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F249" s="8" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G249" s="7" t="b">
         <v>0</v>
@@ -13433,15 +13874,15 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="51">
+    <row r="250" spans="1:19" ht="51">
       <c r="A250" s="7">
         <v>249</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>36</v>
@@ -13469,15 +13910,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="33.950000000000003">
+    <row r="251" spans="1:19" ht="33.950000000000003">
       <c r="A251" s="7">
         <v>250</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>36</v>
@@ -13505,15 +13946,15 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="33.950000000000003">
+    <row r="252" spans="1:19" ht="33.950000000000003">
       <c r="A252" s="7">
         <v>251</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D252" s="7" t="s">
         <v>36</v>
@@ -13541,15 +13982,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="33.950000000000003">
+    <row r="253" spans="1:19" ht="43.5">
       <c r="A253" s="7">
         <v>252</v>
       </c>
-      <c r="B253" s="7" t="s">
-        <v>413</v>
+      <c r="B253" s="65" t="s">
+        <v>432</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>39</v>
@@ -13559,6 +14000,15 @@
       </c>
       <c r="G253" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I253" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K253" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L253" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M253" s="9" t="str" cm="1">
         <f t="array" ref="M253">PAGE_NAME(B253)</f>
@@ -13576,34 +14026,25 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W253" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y253" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z253" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="254" spans="1:26" ht="51">
+      <c r="S253" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" ht="17.100000000000001">
       <c r="A254" s="7">
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F254" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G254" s="7" t="b">
         <v>0</v>
@@ -13625,15 +14066,15 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="17.100000000000001">
+    <row r="255" spans="1:19" ht="17.100000000000001">
       <c r="A255" s="7">
         <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="D255" s="7" t="s">
         <v>36</v>
@@ -13661,15 +14102,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="17.100000000000001">
+    <row r="256" spans="1:19" ht="61.5">
       <c r="A256" s="7">
         <v>255</v>
       </c>
-      <c r="B256" s="7" t="s">
-        <v>413</v>
+      <c r="B256" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>39</v>
@@ -13679,6 +14120,15 @@
       </c>
       <c r="G256" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I256" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K256" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L256" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M256" s="9" t="str" cm="1">
         <f t="array" ref="M256">PAGE_NAME(B256)</f>
@@ -13696,34 +14146,25 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
-      <c r="W256" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y256" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z256" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="257" spans="1:26" ht="51">
+      <c r="S256" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" ht="17.100000000000001">
       <c r="A257" s="7">
         <v>256</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F257" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G257" s="7" t="b">
         <v>0</v>
@@ -13745,15 +14186,15 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="17.100000000000001">
+    <row r="258" spans="1:19" ht="17.100000000000001">
       <c r="A258" s="7">
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="D258" s="7" t="s">
         <v>39</v>
@@ -13781,15 +14222,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="17.100000000000001">
+    <row r="259" spans="1:19" ht="61.5">
       <c r="A259" s="7">
         <v>258</v>
       </c>
-      <c r="B259" s="7" t="s">
-        <v>413</v>
+      <c r="B259" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>39</v>
@@ -13799,6 +14240,15 @@
       </c>
       <c r="G259" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I259" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K259" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L259" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M259" s="9" t="str" cm="1">
         <f t="array" ref="M259">PAGE_NAME(B259)</f>
@@ -13816,34 +14266,25 @@
         <f t="shared" ref="P259:P272" si="10">IF(ISNUMBER(SEARCH("server", C259)), "Server", IF(ISNUMBER(SEARCH("Server", C259)), "Server", IF(ISNUMBER(SEARCH("client", C259)), "Client", IF(ISNUMBER(SEARCH("Client", C259)), "Client", ""))))</f>
         <v>Client</v>
       </c>
-      <c r="W259" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y259" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z259" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="260" spans="1:26" ht="51">
+      <c r="S259" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" ht="17.100000000000001">
       <c r="A260" s="7">
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F260" s="8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G260" s="7" t="b">
         <v>0</v>
@@ -13857,7 +14298,7 @@
         <v>grouplevelexport</v>
       </c>
       <c r="O260" s="10" t="str">
-        <f t="shared" ref="O260:O297" si="11">IF(ISNUMBER(SEARCH("MAY", C260)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C260)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C260)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C260)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C260)), "SHALL NOT", "")))))</f>
+        <f t="shared" ref="O260:O298" si="11">IF(ISNUMBER(SEARCH("MAY", C260)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C260)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C260)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C260)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C260)), "SHALL NOT", "")))))</f>
         <v/>
       </c>
       <c r="P260" s="10" t="str">
@@ -13865,15 +14306,15 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="17.100000000000001">
+    <row r="261" spans="1:19" ht="17.100000000000001">
       <c r="A261" s="7">
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>39</v>
@@ -13901,15 +14342,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="17.100000000000001">
+    <row r="262" spans="1:19" ht="61.5">
       <c r="A262" s="7">
         <v>261</v>
       </c>
-      <c r="B262" s="7" t="s">
-        <v>413</v>
+      <c r="B262" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="D262" s="7" t="s">
         <v>39</v>
@@ -13919,6 +14360,15 @@
       </c>
       <c r="G262" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I262" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K262" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L262" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M262" s="9" t="str" cm="1">
         <f t="array" ref="M262">PAGE_NAME(B262)</f>
@@ -13936,34 +14386,25 @@
         <f t="shared" si="10"/>
         <v>Client</v>
       </c>
-      <c r="W262" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y262" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z262" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="263" spans="1:26" ht="51">
+      <c r="S262" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" ht="17.100000000000001">
       <c r="A263" s="7">
         <v>262</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F263" s="8" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G263" s="7" t="b">
         <v>0</v>
@@ -13985,15 +14426,15 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="17.100000000000001">
+    <row r="264" spans="1:19" ht="17.100000000000001">
       <c r="A264" s="7">
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>39</v>
@@ -14021,15 +14462,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="17.100000000000001">
+    <row r="265" spans="1:19" ht="61.5">
       <c r="A265" s="7">
         <v>264</v>
       </c>
-      <c r="B265" s="7" t="s">
-        <v>413</v>
+      <c r="B265" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>39</v>
@@ -14039,6 +14480,15 @@
       </c>
       <c r="G265" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I265" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K265" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L265" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M265" s="9" t="str" cm="1">
         <f t="array" ref="M265">PAGE_NAME(B265)</f>
@@ -14056,34 +14506,25 @@
         <f t="shared" si="10"/>
         <v>Client</v>
       </c>
-      <c r="W265" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y265" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z265" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="266" spans="1:26" ht="51">
+      <c r="S265" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" ht="17.100000000000001">
       <c r="A266" s="7">
         <v>265</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F266" s="8" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="G266" s="7" t="b">
         <v>0</v>
@@ -14105,15 +14546,15 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="33.950000000000003">
+    <row r="267" spans="1:19" ht="33.950000000000003">
       <c r="A267" s="7">
         <v>266</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>39</v>
@@ -14141,15 +14582,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="33.950000000000003">
+    <row r="268" spans="1:19" ht="61.5">
       <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" s="7" t="s">
-        <v>413</v>
+      <c r="B268" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D268" s="7" t="s">
         <v>39</v>
@@ -14159,6 +14600,15 @@
       </c>
       <c r="G268" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I268" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K268" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L268" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M268" s="9" t="str" cm="1">
         <f t="array" ref="M268">PAGE_NAME(B268)</f>
@@ -14176,25 +14626,25 @@
         <f t="shared" si="10"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="269" spans="1:26" ht="51">
+      <c r="S268" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" ht="17.100000000000001">
       <c r="A269" s="7">
         <v>268</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F269" s="8" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G269" s="7" t="b">
         <v>0</v>
@@ -14216,15 +14666,15 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="17.100000000000001">
+    <row r="270" spans="1:19" ht="17.100000000000001">
       <c r="A270" s="7">
         <v>269</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>39</v>
@@ -14252,15 +14702,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="17.100000000000001">
+    <row r="271" spans="1:19" ht="61.5">
       <c r="A271" s="7">
         <v>270</v>
       </c>
-      <c r="B271" s="7" t="s">
-        <v>413</v>
+      <c r="B271" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>39</v>
@@ -14270,6 +14720,15 @@
       </c>
       <c r="G271" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="I271" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K271" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L271" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="M271" s="9" t="str" cm="1">
         <f t="array" ref="M271">PAGE_NAME(B271)</f>
@@ -14287,25 +14746,25 @@
         <f t="shared" si="10"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="272" spans="1:26" ht="51">
+      <c r="S271" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" ht="17.100000000000001">
       <c r="A272" s="7">
         <v>271</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F272" s="8" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G272" s="7" t="b">
         <v>0</v>
@@ -14327,15 +14786,15 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="51">
+    <row r="273" spans="1:16" ht="51">
       <c r="A273" s="7">
         <v>272</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>36</v>
@@ -14363,15 +14822,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="17.100000000000001">
+    <row r="274" spans="1:16" ht="17.100000000000001">
       <c r="A274" s="7">
         <v>273</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>36</v>
@@ -14395,19 +14854,19 @@
         <v/>
       </c>
       <c r="P274" s="10" t="str">
-        <f t="shared" ref="P274:P297" si="12">IF(ISNUMBER(SEARCH("server", C274)), "Server", IF(ISNUMBER(SEARCH("Server", C274)), "Server", IF(ISNUMBER(SEARCH("client", C274)), "Client", IF(ISNUMBER(SEARCH("Client", C274)), "Client", ""))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="1:26" ht="33.950000000000003">
+        <f t="shared" ref="P274:P298" si="12">IF(ISNUMBER(SEARCH("server", C274)), "Server", IF(ISNUMBER(SEARCH("Server", C274)), "Server", IF(ISNUMBER(SEARCH("client", C274)), "Client", IF(ISNUMBER(SEARCH("Client", C274)), "Client", ""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:16" ht="33.950000000000003">
       <c r="A275" s="7">
         <v>274</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>36</v>
@@ -14435,15 +14894,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="33.950000000000003">
+    <row r="276" spans="1:16" ht="61.5">
       <c r="A276" s="7">
         <v>275</v>
       </c>
-      <c r="B276" s="7" t="s">
-        <v>420</v>
+      <c r="B276" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>39</v>
@@ -14470,28 +14929,22 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-      <c r="W276" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="277" spans="1:26" ht="51">
+    </row>
+    <row r="277" spans="1:16" ht="17.100000000000001">
       <c r="A277" s="7">
         <v>276</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F277" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G277" s="7" t="b">
         <v>0</v>
@@ -14513,15 +14966,15 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="17.100000000000001">
+    <row r="278" spans="1:16" ht="17.100000000000001">
       <c r="A278" s="7">
         <v>277</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="D278" s="7" t="s">
         <v>39</v>
@@ -14549,15 +15002,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="17.100000000000001">
+    <row r="279" spans="1:16" ht="61.5">
       <c r="A279" s="7">
         <v>278</v>
       </c>
-      <c r="B279" s="7" t="s">
-        <v>420</v>
+      <c r="B279" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>39</v>
@@ -14584,28 +15037,22 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-      <c r="W279" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="280" spans="1:26" ht="51">
+    </row>
+    <row r="280" spans="1:16" ht="17.100000000000001">
       <c r="A280" s="7">
         <v>279</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F280" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G280" s="7" t="b">
         <v>0</v>
@@ -14627,15 +15074,15 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="17.100000000000001">
+    <row r="281" spans="1:16" ht="17.100000000000001">
       <c r="A281" s="7">
         <v>280</v>
       </c>
       <c r="B281" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C281" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="C281" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>39</v>
@@ -14663,15 +15110,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="17.100000000000001">
+    <row r="282" spans="1:16" ht="61.5">
       <c r="A282" s="7">
         <v>281</v>
       </c>
-      <c r="B282" s="7" t="s">
-        <v>420</v>
+      <c r="B282" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>39</v>
@@ -14698,34 +15145,22 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-      <c r="W282" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y282" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z282" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="283" spans="1:26" ht="51">
+    </row>
+    <row r="283" spans="1:16" ht="17.100000000000001">
       <c r="A283" s="7">
         <v>282</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F283" s="8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G283" s="7" t="b">
         <v>0</v>
@@ -14747,15 +15182,15 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="17.100000000000001">
+    <row r="284" spans="1:16" ht="17.100000000000001">
       <c r="A284" s="7">
         <v>283</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="D284" s="7" t="s">
         <v>39</v>
@@ -14783,15 +15218,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="17.100000000000001">
+    <row r="285" spans="1:16" ht="61.5">
       <c r="A285" s="7">
         <v>284</v>
       </c>
-      <c r="B285" s="7" t="s">
-        <v>420</v>
+      <c r="B285" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>39</v>
@@ -14818,28 +15253,22 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-      <c r="W285" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="286" spans="1:26" ht="51">
+    </row>
+    <row r="286" spans="1:16" ht="17.100000000000001">
       <c r="A286" s="7">
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F286" s="8" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G286" s="7" t="b">
         <v>0</v>
@@ -14861,15 +15290,15 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="17.100000000000001">
+    <row r="287" spans="1:16" ht="17.100000000000001">
       <c r="A287" s="7">
         <v>286</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>39</v>
@@ -14897,15 +15326,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="17.100000000000001">
+    <row r="288" spans="1:16" ht="61.5">
       <c r="A288" s="7">
         <v>287</v>
       </c>
-      <c r="B288" s="7" t="s">
-        <v>420</v>
+      <c r="B288" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="D288" s="7" t="s">
         <v>39</v>
@@ -14932,28 +15361,22 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-      <c r="W288" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="289" spans="1:36" ht="51">
+    </row>
+    <row r="289" spans="1:31" ht="17.100000000000001">
       <c r="A289" s="7">
         <v>288</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F289" s="8" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="G289" s="7" t="b">
         <v>0</v>
@@ -14975,15 +15398,15 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:36" ht="33.950000000000003">
+    <row r="290" spans="1:31" ht="33.950000000000003">
       <c r="A290" s="7">
         <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>39</v>
@@ -15011,15 +15434,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="291" spans="1:36" ht="33.950000000000003">
+    <row r="291" spans="1:31" ht="61.5">
       <c r="A291" s="7">
         <v>290</v>
       </c>
-      <c r="B291" s="7" t="s">
-        <v>420</v>
+      <c r="B291" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>39</v>
@@ -15046,28 +15469,22 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-      <c r="W291" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="292" spans="1:36" ht="51">
+    </row>
+    <row r="292" spans="1:31" ht="17.100000000000001">
       <c r="A292" s="7">
         <v>291</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F292" s="8" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G292" s="7" t="b">
         <v>0</v>
@@ -15089,15 +15506,15 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="17.100000000000001">
+    <row r="293" spans="1:31" ht="17.100000000000001">
       <c r="A293" s="7">
         <v>292</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="D293" s="7" t="s">
         <v>39</v>
@@ -15125,15 +15542,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="17.100000000000001">
+    <row r="294" spans="1:31" ht="61.5">
       <c r="A294" s="7">
         <v>293</v>
       </c>
-      <c r="B294" s="7" t="s">
-        <v>420</v>
+      <c r="B294" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>39</v>
@@ -15160,31 +15577,22 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-      <c r="W294" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="X294" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="295" spans="1:36" ht="51">
+    </row>
+    <row r="295" spans="1:31" ht="17.100000000000001">
       <c r="A295" s="7">
         <v>294</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F295" s="8" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G295" s="7" t="b">
         <v>0</v>
@@ -15206,11 +15614,11 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:36" s="5" customFormat="1" ht="246.95" customHeight="1">
+    <row r="296" spans="1:31" s="5" customFormat="1" ht="246.95" customHeight="1">
       <c r="A296" s="7">
         <v>295</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="66" t="s">
         <v>34</v>
       </c>
       <c r="C296" s="8" t="s">
@@ -15226,11 +15634,11 @@
       <c r="G296" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H296" s="17"/>
-      <c r="I296" s="31"/>
-      <c r="J296" s="31"/>
-      <c r="K296" s="31"/>
-      <c r="L296" s="31"/>
+      <c r="H296" s="16"/>
+      <c r="I296" s="30"/>
+      <c r="J296" s="30"/>
+      <c r="K296" s="30"/>
+      <c r="L296" s="30"/>
       <c r="M296" s="9" t="str" cm="1">
         <f t="array" ref="M296">PAGE_NAME(B296)</f>
         <v>export</v>
@@ -15249,66 +15657,302 @@
       </c>
       <c r="Q296" s="10"/>
       <c r="R296" s="10"/>
-      <c r="S296" s="17"/>
+      <c r="S296" s="16"/>
       <c r="T296" s="10"/>
       <c r="U296" s="10"/>
       <c r="V296" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z296" s="14"/>
-      <c r="AD296" s="14"/>
-    </row>
-    <row r="297" spans="1:36" ht="17.100000000000001">
+        <v>441</v>
+      </c>
+      <c r="Y296" s="14"/>
+    </row>
+    <row r="297" spans="1:31" s="58" customFormat="1" ht="46.5">
       <c r="A297" s="7">
         <v>296</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D297" s="7" t="s">
+      <c r="D297" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E297" s="7" t="s">
+      <c r="E297" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G297" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M297" s="9" t="str" cm="1">
+      <c r="F297" s="53"/>
+      <c r="G297" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H297" s="54"/>
+      <c r="I297" s="55"/>
+      <c r="J297" s="55"/>
+      <c r="K297" s="55"/>
+      <c r="L297" s="55"/>
+      <c r="M297" s="56" t="str" cm="1">
         <f t="array" ref="M297">PAGE_NAME(B297)</f>
         <v>export</v>
       </c>
-      <c r="N297" s="9" t="str" cm="1">
+      <c r="N297" s="56" t="str" cm="1">
         <f t="array" ref="N297">SECTION_NAME(B297)</f>
         <v>privacy-and-security-considerations</v>
       </c>
-      <c r="O297" s="10" t="str">
+      <c r="O297" s="57" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P297" s="10" t="str">
+      <c r="P297" s="57" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="V297" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z297" s="14"/>
-      <c r="AA297" s="5"/>
-      <c r="AB297" s="5"/>
-      <c r="AC297" s="5"/>
-      <c r="AD297" s="14"/>
-      <c r="AE297" s="5"/>
-      <c r="AF297" s="5"/>
-      <c r="AH297" s="5"/>
-      <c r="AI297" s="5"/>
-      <c r="AJ297" s="5"/>
-    </row>
+      <c r="Q297" s="57"/>
+      <c r="R297" s="57"/>
+      <c r="S297" s="54"/>
+      <c r="T297" s="57"/>
+      <c r="U297" s="57"/>
+      <c r="V297" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="X297" s="59"/>
+      <c r="Y297" s="60"/>
+      <c r="Z297" s="59"/>
+      <c r="AA297" s="59"/>
+      <c r="AC297" s="59"/>
+      <c r="AD297" s="59"/>
+      <c r="AE297" s="59"/>
+    </row>
+    <row r="298" spans="1:31" s="51" customFormat="1" ht="45" customHeight="1">
+      <c r="A298" s="7">
+        <v>297</v>
+      </c>
+      <c r="B298" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="C298" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="D298" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E298" s="45"/>
+      <c r="F298" s="46"/>
+      <c r="G298" s="45"/>
+      <c r="H298" s="47"/>
+      <c r="I298" s="48"/>
+      <c r="J298" s="48"/>
+      <c r="K298" s="48"/>
+      <c r="L298" s="48"/>
+      <c r="M298" s="49"/>
+      <c r="N298" s="49"/>
+      <c r="O298" s="50" t="str">
+        <f t="shared" si="11"/>
+        <v>SHALL</v>
+      </c>
+      <c r="P298" s="50" t="str">
+        <f t="shared" si="12"/>
+        <v>Server</v>
+      </c>
+      <c r="Q298" s="50"/>
+      <c r="R298" s="50"/>
+      <c r="S298" s="47"/>
+      <c r="T298" s="50"/>
+      <c r="U298" s="50"/>
+      <c r="V298" s="50"/>
+    </row>
+    <row r="299" spans="1:31" ht="57" customHeight="1">
+      <c r="A299" s="7">
+        <v>298</v>
+      </c>
+      <c r="B299" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C299" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="D299" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="300" spans="1:31" ht="54" customHeight="1">
+      <c r="A300" s="7">
+        <v>299</v>
+      </c>
+      <c r="B300" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="C300" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="D300" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:31" ht="48" customHeight="1">
+      <c r="A301" s="7">
+        <v>300</v>
+      </c>
+      <c r="B301" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D301" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31" ht="62.1" customHeight="1">
+      <c r="A302" s="7">
+        <v>301</v>
+      </c>
+      <c r="B302" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D302" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303" spans="1:31" ht="62.1" customHeight="1">
+      <c r="A303" s="7">
+        <v>302</v>
+      </c>
+      <c r="B303" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="304" spans="1:31" ht="62.1" customHeight="1">
+      <c r="A304" s="7">
+        <v>303</v>
+      </c>
+      <c r="B304" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D304" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A305" s="7">
+        <v>304</v>
+      </c>
+      <c r="B305" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D305" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A306" s="7">
+        <v>305</v>
+      </c>
+      <c r="B306" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D306" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A307" s="7">
+        <v>306</v>
+      </c>
+      <c r="B307" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D307" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A308" s="7">
+        <v>307</v>
+      </c>
+      <c r="B308" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A309" s="7">
+        <v>308</v>
+      </c>
+      <c r="B309" s="62" t="s">
+        <v>459</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D309" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A310" s="7">
+        <v>309</v>
+      </c>
+      <c r="B310" s="62" t="s">
+        <v>459</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D310" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A311" s="7">
+        <v>310</v>
+      </c>
+      <c r="B311" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D311" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A312" s="45"/>
+    </row>
+    <row r="313" spans="1:4" ht="62.1" customHeight="1"/>
+    <row r="314" spans="1:4" ht="62.1" customHeight="1"/>
+    <row r="315" spans="1:4" ht="62.1" customHeight="1"/>
+    <row r="316" spans="1:4" ht="62.1" customHeight="1"/>
+    <row r="317" spans="1:4" ht="62.1" customHeight="1"/>
+    <row r="318" spans="1:4" ht="62.1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:AJ297" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
+  <autoFilter ref="A1:AE311" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="conformance" xr:uid="{1DD0198B-6242-EB46-94A6-26612CCE19C1}"/>
     <hyperlink ref="B295" r:id="rId2" location="patientlevelexport" xr:uid="{9EF7D2C1-F5A6-ED43-9472-1940DFCC898E}"/>
@@ -15318,8 +15962,27 @@
     <hyperlink ref="B221" r:id="rId6" location="behavior-capability-statements" xr:uid="{8B2462A1-CC06-8A4C-949D-5AFCDCCF0520}"/>
     <hyperlink ref="B234" r:id="rId7" location="bulkdataexport" xr:uid="{F995E2FF-F90B-DE49-B965-BDC2DA4FE3C5}"/>
     <hyperlink ref="B233" r:id="rId8" location="bulkdataexport" xr:uid="{8D3EDBA4-625B-F648-94C1-984098F29D2F}"/>
+    <hyperlink ref="B49" r:id="rId9" location="query-parameters" xr:uid="{1D9F2418-9C8B-4851-A541-60F6D2A729A5}"/>
+    <hyperlink ref="B136" r:id="rId10" location="response---in-progress-status" xr:uid="{C5F909B1-F0B1-409F-900A-6B015C960328}"/>
+    <hyperlink ref="B96" r:id="rId11" location="query-parameters" xr:uid="{4260B0DD-3EDC-4E12-BFA7-1A089FAC028A}"/>
+    <hyperlink ref="B16" r:id="rId12" location="roles" xr:uid="{66A8703F-7794-41A2-96BC-412481747C98}"/>
+    <hyperlink ref="B32" r:id="rId13" location="bulk-data-kick-off-request" xr:uid="{F46F9C0F-9B2B-4E48-A3FD-D05B862B2F7F}"/>
+    <hyperlink ref="B115" r:id="rId14" location="_typefilter-experimental-query-parameter" xr:uid="{14CE5B9B-2FC8-40BD-926E-41BE9A55E7D2}"/>
+    <hyperlink ref="B222" r:id="rId15" location="behavior-capability-statements" xr:uid="{171EF257-5552-4325-A3B3-D7AF7C0B430E}"/>
+    <hyperlink ref="B202" r:id="rId16" location="bulk-data-output-file-request" xr:uid="{A012CDEB-1495-4959-B431-828FEF26CC9B}"/>
+    <hyperlink ref="B125" r:id="rId17" location="bulk-data-status-request" xr:uid="{EC506EB6-3E22-4600-93B2-B34D6AFEB090}"/>
+    <hyperlink ref="B46" r:id="rId18" location="headers" xr:uid="{C3C940D5-7408-43CD-B299-0256C3A4B090}"/>
+    <hyperlink ref="B124" r:id="rId19" location="bulk-data-status-request" xr:uid="{631EAD8A-B873-46B5-B508-97A5CAD4E2E3}"/>
+    <hyperlink ref="B201" r:id="rId20" location="bulk-data-output-file-request" xr:uid="{970B9843-10F7-46C1-9268-411E9A36BA8E}"/>
+    <hyperlink ref="B120" r:id="rId21" location="bulk-data-delete-request" xr:uid="{E981CB41-DB37-42E0-AF49-7318B9166C43}"/>
+    <hyperlink ref="B18" r:id="rId22" location="roles" xr:uid="{DBE72814-64C5-4972-9650-F9276432493D}"/>
+    <hyperlink ref="B48" r:id="rId23" location="query-parameters" xr:uid="{D63A4A8B-3C96-4F5A-9B9F-0DBF99C70349}"/>
+    <hyperlink ref="B206" r:id="rId24" location="headers-1" xr:uid="{C00C539A-06A9-418C-884E-F492507C5BD7}"/>
+    <hyperlink ref="B105" r:id="rId25" location="query-parameters, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-export.html#bulkdataexport, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-group-export.html#grouplevelexport, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-patient-export.html#patientlevelexport" display="https://hl7.org/fhir/uv/bulkdata/STU2/export.html#query-parameters, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-export.html#bulkdataexport, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-group-export.html#grouplevelexport, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-patient-export.html#patientlevelexport" xr:uid="{B3800CF7-6B87-4BE4-B47E-FAF70F1420A3}"/>
+    <hyperlink ref="B253" r:id="rId26" location="grouplevelexport" xr:uid="{F8850E5E-E992-4D41-9C86-98BD7FA1E17E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -15373,96 +16036,96 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="56.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="56.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="408.95" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" s="54"/>
+      <c r="A1" s="73" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" ht="81.95" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>427</v>
+      <c r="A3" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
-        <v>428</v>
+      <c r="A4" s="18" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>430</v>
+      <c r="A5" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>432</v>
+      <c r="A6" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>434</v>
+      <c r="A7" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>436</v>
+      <c r="A8" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="19" t="s">
-        <v>437</v>
+      <c r="A9" s="18" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
-        <v>438</v>
+      <c r="A10" s="18" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="153">
-      <c r="A11" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>440</v>
+      <c r="A11" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>442</v>
+      <c r="A12" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>444</v>
+      <c r="A13" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -15489,20 +16152,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>448</v>
+      <c r="A1" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15510,15 +16173,15 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="41">
+        <v>490</v>
+      </c>
+      <c r="E2" s="40">
         <v>45568</v>
       </c>
     </row>
@@ -15527,15 +16190,15 @@
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>450</v>
+        <v>488</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>489</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E3" s="41">
+        <v>491</v>
+      </c>
+      <c r="E3" s="40">
         <v>45594</v>
       </c>
     </row>
@@ -15559,13 +16222,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -15579,10 +16242,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -15593,10 +16256,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15604,7 +16267,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15614,12 +16277,12 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -15628,20 +16291,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b99fe20362b21f46c22548c58768410">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6d580fea8922c1805a6713e91a04814" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
     <xsd:import namespace="b7009bbd-f938-489b-a530-f05273710fff"/>
     <xsd:import namespace="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
@@ -15666,6 +16317,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:SortOrder" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15740,6 +16392,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SortOrder" ma:index="24" nillable="true" ma:displayName="Sort Order" ma:format="Dropdown" ma:internalName="SortOrder" ma:percentage="FALSE">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -15887,6 +16544,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15897,11 +16567,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2108B9C9-1ABF-4A87-8444-744386E6CF7B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10F13EB-806B-416C-A779-A5DE1198D237}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_2.0.0_reqs.xlsx
+++ b/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_2.0.0_reqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre.sharepoint.com/sites/Inferno/Shared Documents/Testing and Development/Bulk Data Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/bulk-data-test-kit/lib/bulk_data_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2629" documentId="8_{ED990E66-8A12-4443-95F7-E1FDE9C2FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A26672E-1743-4207-A1B7-84CF9DD46003}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755F2BEB-77F5-414B-8926-E77079076D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34160" windowHeight="19740" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="491">
   <si>
     <r>
       <rPr>
@@ -1441,9 +1441,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>This seems more like a requirement that the server can handle the alternative notation.</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -1538,9 +1535,6 @@
   </si>
   <si>
     <t>`_outputFormat`: Optionality for Client: optional</t>
-  </si>
-  <si>
-    <t>MAY param requirement</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/export.html#query-parameters, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-export.html#bulkdataexport, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-group-export.html#grouplevelexport, https://hl7.org/fhir/uv/bulkdata/STU2/OperationDefinition-patient-export.html#patientlevelexport</t>
@@ -1820,9 +1814,6 @@
     <t>`_typeFilter`: FHIR search response parameters such as _include and _sort SHALL NOT be used.</t>
   </si>
   <si>
-    <t>Depends on MAY params requirements</t>
-  </si>
-  <si>
     <t>`_typeFilter`:A server unable to support the requested _typeFilter queries SHOULD return an error and FHIR OperationOutcome resource</t>
   </si>
   <si>
@@ -1872,9 +1863,6 @@
   </si>
   <si>
     <t xml:space="preserve">A client MAY repeat the `_typeFilter` parameter multiple times in a kick-off request. </t>
-  </si>
-  <si>
-    <t>Same as 31 (but specific to `_typeFilter`)?</t>
   </si>
   <si>
     <t>When [the `_typeFilter` parameter is] repeated, the server SHALL treat the repeated values as if they were comma delimited values within a single `_typeFilter` parameter.</t>
@@ -1943,9 +1931,6 @@
   </si>
   <si>
     <t xml:space="preserve"> when polling for status.</t>
-  </si>
-  <si>
-    <t>See Question</t>
   </si>
   <si>
     <t>1. "Wait" test listens for requests
@@ -2497,9 +2482,6 @@
   </si>
   <si>
     <t>A FHIR Bulk Data Client has the option of choosing from this list to access necessary data based on use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>Not specifically testable?</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/bulkdata/STU2/artifacts.html#behavior-operation-definitions</t>
@@ -3024,7 +3006,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4040,15 +4022,15 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="133.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="20"/>
-    <col min="3" max="3" width="91.125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="15"/>
+    <col min="2" max="2" width="10.83203125" style="20"/>
+    <col min="3" max="3" width="91.1640625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="339.95" customHeight="1">
+    <row r="1" spans="1:3" ht="340" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4056,57 +4038,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="124.5" customHeight="1">
+    <row r="2" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="37"/>
     </row>
-    <row r="3" spans="1:3" ht="134.1" customHeight="1">
+    <row r="3" spans="1:3" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="34"/>
     </row>
-    <row r="4" spans="1:3" ht="408.95" customHeight="1">
+    <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3" ht="258" customHeight="1">
+    <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
       <c r="B5" s="39"/>
       <c r="C5" s="34"/>
     </row>
-    <row r="6" spans="1:3" ht="164.1">
+    <row r="6" spans="1:3" ht="164" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="27"/>
     </row>
-    <row r="7" spans="1:3" ht="98.1" customHeight="1">
+    <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="71"/>
     </row>
-    <row r="8" spans="1:3" ht="126" customHeight="1">
+    <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="70"/>
       <c r="B8" s="72"/>
     </row>
-    <row r="9" spans="1:3" ht="68.099999999999994" customHeight="1">
+    <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="68"/>
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:3" ht="291.95">
+    <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
     </row>
   </sheetData>
@@ -4124,37 +4106,37 @@
   <dimension ref="A1:AE318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H222" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="J313" sqref="J313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="26.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="26.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="41" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="14" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="16" customWidth="1"/>
     <col min="9" max="9" width="10" style="30" customWidth="1"/>
     <col min="10" max="10" width="22" style="30" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="30" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="30" customWidth="1"/>
     <col min="13" max="13" width="20" style="9" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="10" customWidth="1"/>
-    <col min="16" max="18" width="10.875" style="10"/>
+    <col min="15" max="15" width="10.83203125" style="10" customWidth="1"/>
+    <col min="16" max="18" width="10.83203125" style="10"/>
     <col min="19" max="19" width="10.5" style="16" customWidth="1"/>
     <col min="20" max="20" width="42.5" style="10" customWidth="1"/>
-    <col min="21" max="22" width="44.125" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="10.875" style="6"/>
+    <col min="21" max="22" width="44.1640625" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="5" customFormat="1" ht="29.25">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4225,7 +4207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="84.95">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4275,7 +4257,7 @@
       <c r="W2" s="13"/>
       <c r="Y2" s="14"/>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="246.95" customHeight="1">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4326,7 +4308,7 @@
       </c>
       <c r="Y3" s="14"/>
     </row>
-    <row r="4" spans="1:31" ht="17.100000000000001">
+    <row r="4" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4372,7 +4354,7 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31" ht="84.95">
+    <row r="5" spans="1:31" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4415,7 +4397,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:31" ht="119.1">
+    <row r="6" spans="1:31" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4458,7 +4440,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:31" ht="68.099999999999994">
+    <row r="7" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4498,7 +4480,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:31" ht="51">
+    <row r="8" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4538,7 +4520,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:31" ht="68.099999999999994">
+    <row r="9" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4574,7 +4556,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="51">
+    <row r="10" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4610,7 +4592,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="68.099999999999994">
+    <row r="11" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4646,7 +4628,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="68.099999999999994">
+    <row r="12" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4682,7 +4664,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="33.950000000000003">
+    <row r="13" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4718,7 +4700,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="33.950000000000003">
+    <row r="14" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -4754,7 +4736,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="33.950000000000003">
+    <row r="15" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -4790,7 +4772,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="30.75">
+    <row r="16" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -4826,7 +4808,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="30.75">
+    <row r="17" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -4862,7 +4844,7 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="93.75" customHeight="1">
+    <row r="18" spans="1:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -4910,7 +4892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="30.75">
+    <row r="19" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -4949,7 +4931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="51">
+    <row r="20" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -4988,7 +4970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="17.100000000000001">
+    <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -5024,7 +5006,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="17.100000000000001">
+    <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -5060,7 +5042,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="33.950000000000003">
+    <row r="23" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -5096,7 +5078,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="33.950000000000003">
+    <row r="24" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -5133,7 +5115,7 @@
       </c>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="1:23" ht="33.950000000000003">
+    <row r="25" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -5169,7 +5151,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="33.950000000000003">
+    <row r="26" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -5205,7 +5187,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.100000000000001">
+    <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -5244,7 +5226,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="51">
+    <row r="28" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -5280,7 +5262,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="68.099999999999994">
+    <row r="29" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -5319,7 +5301,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="17.100000000000001">
+    <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -5355,7 +5337,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="51">
+    <row r="31" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -5394,7 +5376,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="63.75" customHeight="1">
+    <row r="32" spans="1:23" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -5415,12 +5397,6 @@
       </c>
       <c r="I32" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>87</v>
       </c>
       <c r="M32" s="9" t="str" cm="1">
         <f t="array" ref="M32">PAGE_NAME(B32)</f>
@@ -5439,14 +5415,14 @@
         <v>Client</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T32" s="16"/>
       <c r="V32" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="51">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -5454,7 +5430,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>36</v>
@@ -5482,7 +5458,7 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="68.099999999999994">
+    <row r="34" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -5490,7 +5466,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>32</v>
@@ -5502,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M34" s="9" t="str" cm="1">
         <f t="array" ref="M34">PAGE_NAME(B34)</f>
@@ -5521,7 +5497,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="68.099999999999994">
+    <row r="35" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -5529,7 +5505,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>32</v>
@@ -5541,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M35" s="9" t="str" cm="1">
         <f t="array" ref="M35">PAGE_NAME(B35)</f>
@@ -5560,7 +5536,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="51">
+    <row r="36" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -5568,7 +5544,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>32</v>
@@ -5580,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M36" s="9" t="str" cm="1">
         <f t="array" ref="M36">PAGE_NAME(B36)</f>
@@ -5599,7 +5575,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="51">
+    <row r="37" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -5607,7 +5583,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>32</v>
@@ -5619,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M37" s="9" t="str" cm="1">
         <f t="array" ref="M37">PAGE_NAME(B37)</f>
@@ -5638,7 +5614,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="84.95">
+    <row r="38" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -5646,7 +5622,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>39</v>
@@ -5658,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M38" s="9" t="str" cm="1">
         <f t="array" ref="M38">PAGE_NAME(B38)</f>
@@ -5677,7 +5653,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="102">
+    <row r="39" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -5685,7 +5661,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>39</v>
@@ -5697,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M39" s="9" t="str" cm="1">
         <f t="array" ref="M39">PAGE_NAME(B39)</f>
@@ -5716,7 +5692,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="84.95">
+    <row r="40" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -5724,7 +5700,7 @@
         <v>78</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>39</v>
@@ -5733,7 +5709,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>0</v>
@@ -5755,7 +5731,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="51">
+    <row r="41" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -5763,7 +5739,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>39</v>
@@ -5791,7 +5767,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="84.95">
+    <row r="42" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -5799,7 +5775,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>39</v>
@@ -5827,15 +5803,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="51">
+    <row r="43" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>32</v>
@@ -5847,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M43" s="9" t="str" cm="1">
         <f t="array" ref="M43">PAGE_NAME(B43)</f>
@@ -5866,15 +5842,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="90" customHeight="1">
+    <row r="44" spans="1:21" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>32</v>
@@ -5908,21 +5884,21 @@
         <v>Client</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T44" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="51">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>39</v>
@@ -5950,15 +5926,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="93.75" customHeight="1">
+    <row r="46" spans="1:21" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>32</v>
@@ -5992,21 +5968,21 @@
         <v>Client</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="51">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>39</v>
@@ -6034,18 +6010,18 @@
         <v>Server</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>36</v>
@@ -6073,18 +6049,18 @@
         <v>Server</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="43.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>39</v>
@@ -6097,12 +6073,6 @@
       </c>
       <c r="I49" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K49" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L49" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M49" s="9" t="str" cm="1">
         <f t="array" ref="M49">PAGE_NAME(B49)</f>
@@ -6121,18 +6091,18 @@
         <v>Client</v>
       </c>
       <c r="S49" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="33.950000000000003">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>36</v>
@@ -6160,15 +6130,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="33.950000000000003">
+    <row r="51" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>39</v>
@@ -6196,15 +6166,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="33.950000000000003">
+    <row r="52" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>36</v>
@@ -6232,15 +6202,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="51">
+    <row r="53" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>36</v>
@@ -6268,15 +6238,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="17.100000000000001">
+    <row r="54" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>36</v>
@@ -6304,15 +6274,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="46.5">
+    <row r="55" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>39</v>
@@ -6325,12 +6295,6 @@
       </c>
       <c r="I55" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L55" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M55" s="9" t="str" cm="1">
         <f t="array" ref="M55">PAGE_NAME(B55)</f>
@@ -6349,18 +6313,18 @@
         <v>Client</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="119.1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>39</v>
@@ -6372,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M56" s="9" t="str" cm="1">
         <f t="array" ref="M56">PAGE_NAME(B56)</f>
@@ -6391,15 +6355,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="135.94999999999999">
+    <row r="57" spans="1:19" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>32</v>
@@ -6411,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M57" s="9" t="str" cm="1">
         <f t="array" ref="M57">PAGE_NAME(B57)</f>
@@ -6430,15 +6394,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="84.95">
+    <row r="58" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>39</v>
@@ -6450,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M58" s="9" t="str" cm="1">
         <f t="array" ref="M58">PAGE_NAME(B58)</f>
@@ -6469,15 +6433,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="84.95">
+    <row r="59" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>39</v>
@@ -6489,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M59" s="9" t="str" cm="1">
         <f t="array" ref="M59">PAGE_NAME(B59)</f>
@@ -6508,15 +6472,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="84.95">
+    <row r="60" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>36</v>
@@ -6544,15 +6508,15 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="17.100000000000001">
+    <row r="61" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>39</v>
@@ -6580,15 +6544,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="46.5">
+    <row r="62" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>39</v>
@@ -6601,12 +6565,6 @@
       </c>
       <c r="I62" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K62" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L62" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M62" s="9" t="str" cm="1">
         <f t="array" ref="M62">PAGE_NAME(B62)</f>
@@ -6625,18 +6583,18 @@
         <v>Client</v>
       </c>
       <c r="S62" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>36</v>
@@ -6648,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M63" s="9" t="str" cm="1">
         <f t="array" ref="M63">PAGE_NAME(B63)</f>
@@ -6667,15 +6625,15 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="51">
+    <row r="64" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>36</v>
@@ -6687,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M64" s="9" t="str" cm="1">
         <f t="array" ref="M64">PAGE_NAME(B64)</f>
@@ -6706,15 +6664,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="68.099999999999994">
+    <row r="65" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>39</v>
@@ -6726,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M65" s="9" t="str" cm="1">
         <f t="array" ref="M65">PAGE_NAME(B65)</f>
@@ -6745,15 +6703,15 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="84.95">
+    <row r="66" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>32</v>
@@ -6765,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M66" s="9" t="str" cm="1">
         <f t="array" ref="M66">PAGE_NAME(B66)</f>
@@ -6784,15 +6742,15 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="84.95">
+    <row r="67" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>32</v>
@@ -6804,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
         <f t="array" ref="M67">PAGE_NAME(B67)</f>
@@ -6823,15 +6781,15 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="102">
+    <row r="68" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>39</v>
@@ -6843,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
         <f t="array" ref="M68">PAGE_NAME(B68)</f>
@@ -6862,15 +6820,15 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="237.95">
+    <row r="69" spans="1:19" ht="238" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>32</v>
@@ -6882,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
         <f t="array" ref="M69">PAGE_NAME(B69)</f>
@@ -6901,15 +6859,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="51">
+    <row r="70" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>32</v>
@@ -6921,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
         <f t="array" ref="M70">PAGE_NAME(B70)</f>
@@ -6940,15 +6898,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="84.95">
+    <row r="71" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>32</v>
@@ -6960,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M71" s="9" t="str" cm="1">
         <f t="array" ref="M71">PAGE_NAME(B71)</f>
@@ -6979,15 +6937,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="84.95">
+    <row r="72" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>32</v>
@@ -6999,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M72" s="9" t="str" cm="1">
         <f t="array" ref="M72">PAGE_NAME(B72)</f>
@@ -7018,15 +6976,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="84.95">
+    <row r="73" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>39</v>
@@ -7038,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M73" s="9" t="str" cm="1">
         <f t="array" ref="M73">PAGE_NAME(B73)</f>
@@ -7057,15 +7015,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="17.100000000000001">
+    <row r="74" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>39</v>
@@ -7090,15 +7048,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="46.5">
+    <row r="75" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>39</v>
@@ -7108,12 +7066,6 @@
       </c>
       <c r="I75" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K75" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L75" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M75" s="9" t="str" cm="1">
         <f t="array" ref="M75">PAGE_NAME(B75)</f>
@@ -7132,18 +7084,18 @@
         <v>Client</v>
       </c>
       <c r="S75" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>32</v>
@@ -7155,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M76" s="9" t="str" cm="1">
         <f t="array" ref="M76">PAGE_NAME(B76)</f>
@@ -7174,15 +7126,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="51">
+    <row r="77" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>32</v>
@@ -7194,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M77" s="9" t="str" cm="1">
         <f t="array" ref="M77">PAGE_NAME(B77)</f>
@@ -7213,15 +7165,15 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="51">
+    <row r="78" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>36</v>
@@ -7233,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
         <f t="array" ref="M78">PAGE_NAME(B78)</f>
@@ -7252,15 +7204,15 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="102">
+    <row r="79" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>32</v>
@@ -7272,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M79" s="9" t="str" cm="1">
         <f t="array" ref="M79">PAGE_NAME(B79)</f>
@@ -7291,15 +7243,15 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="51">
+    <row r="80" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>32</v>
@@ -7311,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M80" s="9" t="str" cm="1">
         <f t="array" ref="M80">PAGE_NAME(B80)</f>
@@ -7330,15 +7282,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="84.95">
+    <row r="81" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>32</v>
@@ -7350,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M81" s="9" t="str" cm="1">
         <f t="array" ref="M81">PAGE_NAME(B81)</f>
@@ -7369,15 +7321,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="51">
+    <row r="82" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>32</v>
@@ -7389,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M82" s="9" t="str" cm="1">
         <f t="array" ref="M82">PAGE_NAME(B82)</f>
@@ -7408,15 +7360,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="68.099999999999994">
+    <row r="83" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>39</v>
@@ -7428,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M83" s="9" t="str" cm="1">
         <f t="array" ref="M83">PAGE_NAME(B83)</f>
@@ -7447,15 +7399,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="17.100000000000001">
+    <row r="84" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>39</v>
@@ -7483,15 +7435,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="46.5">
+    <row r="85" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>39</v>
@@ -7504,12 +7456,6 @@
       </c>
       <c r="I85" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K85" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L85" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M85" s="9" t="str" cm="1">
         <f t="array" ref="M85">PAGE_NAME(B85)</f>
@@ -7528,21 +7474,21 @@
         <v>Client</v>
       </c>
       <c r="S85" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>33</v>
@@ -7551,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M86" s="9" t="str" cm="1">
         <f t="array" ref="M86">PAGE_NAME(B86)</f>
@@ -7570,15 +7516,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="84.95">
+    <row r="87" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>32</v>
@@ -7590,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M87" s="9" t="str" cm="1">
         <f t="array" ref="M87">PAGE_NAME(B87)</f>
@@ -7609,15 +7555,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="102">
+    <row r="88" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>32</v>
@@ -7629,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M88" s="9" t="str" cm="1">
         <f t="array" ref="M88">PAGE_NAME(B88)</f>
@@ -7648,15 +7594,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="84.95">
+    <row r="89" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>32</v>
@@ -7668,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M89" s="9" t="str" cm="1">
         <f t="array" ref="M89">PAGE_NAME(B89)</f>
@@ -7687,15 +7633,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="68.099999999999994">
+    <row r="90" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>39</v>
@@ -7707,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
@@ -7726,15 +7672,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="33.950000000000003">
+    <row r="91" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>39</v>
@@ -7762,15 +7708,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="46.5">
+    <row r="92" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>39</v>
@@ -7783,12 +7729,6 @@
       </c>
       <c r="I92" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K92" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L92" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M92" s="9" t="str" cm="1">
         <f t="array" ref="M92">PAGE_NAME(B92)</f>
@@ -7807,18 +7747,18 @@
         <v>Client</v>
       </c>
       <c r="S92" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="68.099999999999994">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>36</v>
@@ -7830,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M93" s="9" t="str" cm="1">
         <f t="array" ref="M93">PAGE_NAME(B93)</f>
@@ -7849,15 +7789,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="68.099999999999994">
+    <row r="94" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>32</v>
@@ -7869,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M94" s="9" t="str" cm="1">
         <f t="array" ref="M94">PAGE_NAME(B94)</f>
@@ -7888,15 +7828,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="68.099999999999994">
+    <row r="95" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>39</v>
@@ -7908,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M95" s="9" t="str" cm="1">
         <f t="array" ref="M95">PAGE_NAME(B95)</f>
@@ -7927,15 +7867,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="92.25">
+    <row r="96" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>39</v>
@@ -7944,19 +7884,13 @@
         <v>57</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G96" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I96" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K96" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L96" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
@@ -7975,18 +7909,18 @@
         <v>Client</v>
       </c>
       <c r="S96" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="68.099999999999994">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>36</v>
@@ -7995,13 +7929,13 @@
         <v>33</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G97" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M97" s="9" t="str" cm="1">
         <f t="array" ref="M97">PAGE_NAME(B97)</f>
@@ -8020,15 +7954,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="84.95">
+    <row r="98" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>36</v>
@@ -8040,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(B98)</f>
@@ -8059,18 +7993,18 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="51">
+    <row r="99" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>33</v>
@@ -8079,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M99" s="9" t="str" cm="1">
         <f t="array" ref="M99">PAGE_NAME(B99)</f>
@@ -8098,15 +8032,15 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="84.95">
+    <row r="100" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>36</v>
@@ -8118,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M100" s="9" t="str" cm="1">
         <f t="array" ref="M100">PAGE_NAME(B100)</f>
@@ -8137,15 +8071,15 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="68.099999999999994">
+    <row r="101" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>39</v>
@@ -8157,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M101" s="9" t="str" cm="1">
         <f t="array" ref="M101">PAGE_NAME(B101)</f>
@@ -8176,15 +8110,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="17.100000000000001">
+    <row r="102" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>39</v>
@@ -8212,15 +8146,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="46.5">
+    <row r="103" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>39</v>
@@ -8233,12 +8167,6 @@
       </c>
       <c r="I103" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K103" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L103" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
         <f t="array" ref="M103">PAGE_NAME(B103)</f>
@@ -8257,18 +8185,18 @@
         <v>Client</v>
       </c>
       <c r="S103" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="84.95">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>36</v>
@@ -8280,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
         <f t="array" ref="M104">PAGE_NAME(B104)</f>
@@ -8299,18 +8227,18 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="174">
+    <row r="105" spans="1:19" ht="192" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>57</v>
@@ -8319,16 +8247,10 @@
         <v>1</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I105" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K105" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L105" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
@@ -8347,18 +8269,18 @@
         <v/>
       </c>
       <c r="S105" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>32</v>
@@ -8370,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
         <f t="array" ref="M106">PAGE_NAME(B106)</f>
@@ -8389,15 +8311,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="51">
+    <row r="107" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>39</v>
@@ -8409,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
         <f t="array" ref="M107">PAGE_NAME(B107)</f>
@@ -8428,15 +8350,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="68.099999999999994">
+    <row r="108" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>39</v>
@@ -8464,15 +8386,15 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="84.95">
+    <row r="109" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>32</v>
@@ -8484,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M109" s="9" t="str" cm="1">
         <f t="array" ref="M109">PAGE_NAME(B109)</f>
@@ -8503,15 +8425,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="102">
+    <row r="110" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>36</v>
@@ -8524,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M110" s="9" t="str" cm="1">
         <f t="array" ref="M110">PAGE_NAME(B110)</f>
@@ -8543,15 +8465,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="102">
+    <row r="111" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>36</v>
@@ -8563,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M111" s="9" t="str" cm="1">
         <f t="array" ref="M111">PAGE_NAME(B111)</f>
@@ -8582,15 +8504,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="119.1">
+    <row r="112" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>36</v>
@@ -8602,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
         <f t="array" ref="M112">PAGE_NAME(B112)</f>
@@ -8621,15 +8543,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="119.1">
+    <row r="113" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>36</v>
@@ -8641,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
         <f t="array" ref="M113">PAGE_NAME(B113)</f>
@@ -8660,15 +8582,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="46.5">
+    <row r="114" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>39</v>
@@ -8681,12 +8603,6 @@
       </c>
       <c r="I114" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K114" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L114" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="M114" s="9" t="str" cm="1">
         <f t="array" ref="M114">PAGE_NAME(B114)</f>
@@ -8705,21 +8621,21 @@
         <v>Client</v>
       </c>
       <c r="S114" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" ht="43.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" s="65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>57</v>
@@ -8729,12 +8645,6 @@
       </c>
       <c r="I115" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K115" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L115" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
@@ -8753,18 +8663,18 @@
         <v/>
       </c>
       <c r="S115" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" ht="46.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>32</v>
@@ -8795,15 +8705,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="46.5">
+    <row r="117" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>39</v>
@@ -8816,12 +8726,6 @@
       </c>
       <c r="I117" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K117" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L117" s="30" t="s">
-        <v>223</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
         <f t="array" ref="M117">PAGE_NAME(B117)</f>
@@ -8840,18 +8744,18 @@
         <v>Client</v>
       </c>
       <c r="S117" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" ht="68.099999999999994">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>36</v>
@@ -8879,15 +8783,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="84.95">
+    <row r="119" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>32</v>
@@ -8899,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
         <f t="array" ref="M119">PAGE_NAME(B119)</f>
@@ -8918,15 +8822,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="140.25" customHeight="1">
+    <row r="120" spans="1:23" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" s="65" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>39</v>
@@ -8935,13 +8839,13 @@
         <v>57</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G120" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I120" s="30" t="s">
         <v>60</v>
@@ -8969,18 +8873,18 @@
         <v>61</v>
       </c>
       <c r="T120" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" ht="68.099999999999994">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>39</v>
@@ -8992,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
         <f t="array" ref="M121">PAGE_NAME(B121)</f>
@@ -9011,15 +8915,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="51">
+    <row r="122" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>39</v>
@@ -9031,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M122" s="9" t="str" cm="1">
         <f t="array" ref="M122">PAGE_NAME(B122)</f>
@@ -9050,15 +8954,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="84.95">
+    <row r="123" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>36</v>
@@ -9070,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M123" s="9" t="str" cm="1">
         <f t="array" ref="M123">PAGE_NAME(B123)</f>
@@ -9089,15 +8993,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="150.75" customHeight="1">
+    <row r="124" spans="1:23" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
       <c r="B124" s="65" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>39</v>
@@ -9106,13 +9010,13 @@
         <v>57</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G124" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I124" s="30" t="s">
         <v>60</v>
@@ -9140,18 +9044,18 @@
         <v>61</v>
       </c>
       <c r="T124" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" ht="225" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>32</v>
@@ -9163,16 +9067,10 @@
         <v>1</v>
       </c>
       <c r="H125" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I125" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K125" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L125" s="30" t="s">
-        <v>244</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
         <f t="array" ref="M125">PAGE_NAME(B125)</f>
@@ -9191,24 +9089,24 @@
         <v>Client</v>
       </c>
       <c r="S125" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T125" s="16" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="V125" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" ht="68.099999999999994">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>32</v>
@@ -9220,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M126" s="9" t="str" cm="1">
         <f t="array" ref="M126">PAGE_NAME(B126)</f>
@@ -9239,15 +9137,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="242.25" customHeight="1">
+    <row r="127" spans="1:23" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>32</v>
@@ -9259,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>60</v>
@@ -9284,21 +9182,21 @@
         <v>Client</v>
       </c>
       <c r="S127" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T127" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="33.950000000000003">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>32</v>
@@ -9310,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="H128" s="16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M128" s="9" t="str" cm="1">
         <f t="array" ref="M128">PAGE_NAME(B128)</f>
@@ -9329,15 +9227,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="84.95">
+    <row r="129" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>32</v>
@@ -9349,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="H129" s="16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M129" s="9" t="str" cm="1">
         <f t="array" ref="M129">PAGE_NAME(B129)</f>
@@ -9368,15 +9266,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="51">
+    <row r="130" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>39</v>
@@ -9388,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M130" s="9" t="str" cm="1">
         <f t="array" ref="M130">PAGE_NAME(B130)</f>
@@ -9407,15 +9305,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="202.5" customHeight="1">
+    <row r="131" spans="1:23" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>32</v>
@@ -9427,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I131" s="30" t="s">
         <v>60</v>
@@ -9452,21 +9350,21 @@
         <v>Client</v>
       </c>
       <c r="S131" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T131" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" ht="68.099999999999994">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>32</v>
@@ -9478,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="H132" s="16" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M132" s="9" t="str" cm="1">
         <f t="array" ref="M132">PAGE_NAME(B132)</f>
@@ -9497,15 +9395,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="51">
+    <row r="133" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>36</v>
@@ -9533,15 +9431,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="51">
+    <row r="134" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>39</v>
@@ -9569,15 +9467,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="51">
+    <row r="135" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>39</v>
@@ -9605,15 +9503,15 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="46.5">
+    <row r="136" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
       <c r="B136" s="65" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>39</v>
@@ -9644,15 +9542,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="51">
+    <row r="137" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>36</v>
@@ -9685,15 +9583,15 @@
       </c>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="1:23" ht="68.099999999999994">
+    <row r="138" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>36</v>
@@ -9705,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M138" s="9" t="str" cm="1">
         <f t="array" ref="M138">PAGE_NAME(B138)</f>
@@ -9724,15 +9622,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="68.099999999999994">
+    <row r="139" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>32</v>
@@ -9760,15 +9658,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="119.1">
+    <row r="140" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>39</v>
@@ -9780,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M140" s="9" t="str" cm="1">
         <f t="array" ref="M140">PAGE_NAME(B140)</f>
@@ -9799,15 +9697,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="119.1">
+    <row r="141" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>32</v>
@@ -9819,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="H141" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M141" s="9" t="str" cm="1">
         <f t="array" ref="M141">PAGE_NAME(B141)</f>
@@ -9838,15 +9736,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="51">
+    <row r="142" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>39</v>
@@ -9858,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M142" s="9" t="str" cm="1">
         <f t="array" ref="M142">PAGE_NAME(B142)</f>
@@ -9877,15 +9775,15 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="119.1">
+    <row r="143" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>36</v>
@@ -9897,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M143" s="9" t="str" cm="1">
         <f t="array" ref="M143">PAGE_NAME(B143)</f>
@@ -9916,15 +9814,15 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="33.950000000000003">
+    <row r="144" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>36</v>
@@ -9936,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M144" s="9" t="str" cm="1">
         <f t="array" ref="M144">PAGE_NAME(B144)</f>
@@ -9955,15 +9853,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="51">
+    <row r="145" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>36</v>
@@ -9991,15 +9889,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="68.099999999999994">
+    <row r="146" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>36</v>
@@ -10027,15 +9925,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="84.95">
+    <row r="147" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>32</v>
@@ -10064,15 +9962,15 @@
       </c>
       <c r="W147" s="13"/>
     </row>
-    <row r="148" spans="1:23" ht="84.95">
+    <row r="148" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>36</v>
@@ -10100,15 +9998,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="68.099999999999994">
+    <row r="149" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>36</v>
@@ -10136,15 +10034,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="84.95">
+    <row r="150" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
       <c r="B150" s="64" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>39</v>
@@ -10172,15 +10070,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="51">
+    <row r="151" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>36</v>
@@ -10208,15 +10106,15 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="51">
+    <row r="152" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>36</v>
@@ -10244,15 +10142,15 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="68.099999999999994">
+    <row r="153" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>36</v>
@@ -10280,15 +10178,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="68.099999999999994">
+    <row r="154" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>32</v>
@@ -10316,15 +10214,15 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="84.95">
+    <row r="155" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>36</v>
@@ -10352,15 +10250,15 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="84.95">
+    <row r="156" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>36</v>
@@ -10388,15 +10286,15 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="84.95">
+    <row r="157" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>36</v>
@@ -10424,15 +10322,15 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="68.099999999999994">
+    <row r="158" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>36</v>
@@ -10460,15 +10358,15 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="68.099999999999994">
+    <row r="159" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>36</v>
@@ -10480,7 +10378,7 @@
         <v>1</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M159" s="9" t="str" cm="1">
         <f t="array" ref="M159">PAGE_NAME(B159)</f>
@@ -10499,15 +10397,15 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="84.95">
+    <row r="160" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>36</v>
@@ -10535,15 +10433,15 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="84.95">
+    <row r="161" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>36</v>
@@ -10571,15 +10469,15 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="102">
+    <row r="162" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>36</v>
@@ -10607,15 +10505,15 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="84.95">
+    <row r="163" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>36</v>
@@ -10627,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M163" s="9" t="str" cm="1">
         <f t="array" ref="M163">PAGE_NAME(B163)</f>
@@ -10646,15 +10544,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="84.95">
+    <row r="164" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>39</v>
@@ -10682,15 +10580,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="84.95">
+    <row r="165" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>36</v>
@@ -10718,15 +10616,15 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="84.95">
+    <row r="166" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>36</v>
@@ -10754,15 +10652,15 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="135.94999999999999">
+    <row r="167" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>36</v>
@@ -10790,15 +10688,15 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="119.1">
+    <row r="168" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>32</v>
@@ -10810,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M168" s="9" t="str" cm="1">
         <f t="array" ref="M168">PAGE_NAME(B168)</f>
@@ -10829,15 +10727,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="102" customHeight="1">
+    <row r="169" spans="1:16" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>36</v>
@@ -10846,7 +10744,7 @@
         <v>33</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G169" s="7" t="b">
         <v>0</v>
@@ -10868,15 +10766,15 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="102">
+    <row r="170" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>36</v>
@@ -10904,15 +10802,15 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="102">
+    <row r="171" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>36</v>
@@ -10940,15 +10838,15 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="102">
+    <row r="172" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>39</v>
@@ -10976,15 +10874,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="102">
+    <row r="173" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>39</v>
@@ -11012,15 +10910,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="119.1">
+    <row r="174" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>32</v>
@@ -11032,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M174" s="9" t="str" cm="1">
         <f t="array" ref="M174">PAGE_NAME(B174)</f>
@@ -11051,15 +10949,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="119.1">
+    <row r="175" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>39</v>
@@ -11087,15 +10985,15 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="84.95">
+    <row r="176" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>36</v>
@@ -11123,15 +11021,15 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="119.1">
+    <row r="177" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>32</v>
@@ -11159,15 +11057,15 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="119.1">
+    <row r="178" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>39</v>
@@ -11176,7 +11074,7 @@
         <v>33</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G178" s="7" t="b">
         <v>0</v>
@@ -11198,15 +11096,15 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="102">
+    <row r="179" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>36</v>
@@ -11234,15 +11132,15 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="84.95">
+    <row r="180" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>39</v>
@@ -11270,15 +11168,15 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="84.95">
+    <row r="181" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>36</v>
@@ -11306,15 +11204,15 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="68.099999999999994">
+    <row r="182" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>36</v>
@@ -11323,7 +11221,7 @@
         <v>33</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G182" s="7" t="b">
         <v>0</v>
@@ -11345,15 +11243,15 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="153">
+    <row r="183" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>32</v>
@@ -11365,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M183" s="9" t="str" cm="1">
         <f t="array" ref="M183">PAGE_NAME(B183)</f>
@@ -11384,15 +11282,15 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="84.95">
+    <row r="184" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>39</v>
@@ -11404,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M184" s="9" t="str" cm="1">
         <f t="array" ref="M184">PAGE_NAME(B184)</f>
@@ -11423,15 +11321,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="84.95">
+    <row r="185" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>39</v>
@@ -11443,7 +11341,7 @@
         <v>1</v>
       </c>
       <c r="H185" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M185" s="9" t="str" cm="1">
         <f t="array" ref="M185">PAGE_NAME(B185)</f>
@@ -11462,15 +11360,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="84.95">
+    <row r="186" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>39</v>
@@ -11482,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="H186" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M186" s="9" t="str" cm="1">
         <f t="array" ref="M186">PAGE_NAME(B186)</f>
@@ -11501,15 +11399,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="102">
+    <row r="187" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>36</v>
@@ -11537,15 +11435,15 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="68.099999999999994">
+    <row r="188" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>36</v>
@@ -11573,15 +11471,15 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="68.099999999999994">
+    <row r="189" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>36</v>
@@ -11609,15 +11507,15 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="68.099999999999994">
+    <row r="190" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>36</v>
@@ -11645,15 +11543,15 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="68.099999999999994">
+    <row r="191" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>36</v>
@@ -11681,15 +11579,15 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="84.95">
+    <row r="192" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>36</v>
@@ -11717,15 +11615,15 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="84.95">
+    <row r="193" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>36</v>
@@ -11753,15 +11651,15 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="68.099999999999994">
+    <row r="194" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>36</v>
@@ -11770,7 +11668,7 @@
         <v>33</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G194" s="7" t="b">
         <v>0</v>
@@ -11792,15 +11690,15 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="84.95">
+    <row r="195" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>32</v>
@@ -11828,15 +11726,15 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="68.099999999999994">
+    <row r="196" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>32</v>
@@ -11848,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="H196" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M196" s="9" t="str" cm="1">
         <f t="array" ref="M196">PAGE_NAME(B196)</f>
@@ -11867,15 +11765,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="119.1">
+    <row r="197" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>36</v>
@@ -11903,15 +11801,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="135.94999999999999">
+    <row r="198" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>32</v>
@@ -11923,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="H198" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M198" s="9" t="str" cm="1">
         <f t="array" ref="M198">PAGE_NAME(B198)</f>
@@ -11942,15 +11840,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="84.95">
+    <row r="199" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>36</v>
@@ -11978,15 +11876,15 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="84.95">
+    <row r="200" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>36</v>
@@ -12014,15 +11912,15 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="77.25">
+    <row r="201" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>200</v>
       </c>
       <c r="B201" s="65" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>39</v>
@@ -12034,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="H201" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I201" s="30" t="s">
         <v>60</v>
@@ -12062,21 +11960,21 @@
         <v>61</v>
       </c>
       <c r="T201" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="W201" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="243.75" customHeight="1">
+    <row r="202" spans="1:23" ht="243.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7">
         <v>201</v>
       </c>
       <c r="B202" s="65" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>36</v>
@@ -12088,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="H202" s="16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I202" s="30" t="s">
         <v>60</v>
@@ -12113,21 +12011,21 @@
         <v/>
       </c>
       <c r="S202" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T202" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23" ht="68.099999999999994">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>36</v>
@@ -12155,15 +12053,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="51">
+    <row r="204" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>203</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>39</v>
@@ -12191,15 +12089,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="51">
+    <row r="205" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>36</v>
@@ -12227,15 +12125,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="46.5">
+    <row r="206" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>205</v>
       </c>
       <c r="B206" s="65" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>39</v>
@@ -12263,15 +12161,15 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="51">
+    <row r="207" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>36</v>
@@ -12299,15 +12197,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="68.099999999999994">
+    <row r="208" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>36</v>
@@ -12335,15 +12233,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="68.099999999999994">
+    <row r="209" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>36</v>
@@ -12371,15 +12269,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="102">
+    <row r="210" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>36</v>
@@ -12407,15 +12305,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="51">
+    <row r="211" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C211" s="61" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>36</v>
@@ -12443,15 +12341,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="68.099999999999994">
+    <row r="212" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>32</v>
@@ -12463,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M212" s="9" t="str" cm="1">
         <f t="array" ref="M212">PAGE_NAME(B212)</f>
@@ -12482,15 +12380,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="68.099999999999994">
+    <row r="213" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>32</v>
@@ -12502,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="H213" s="16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M213" s="9" t="str" cm="1">
         <f t="array" ref="M213">PAGE_NAME(B213)</f>
@@ -12521,15 +12419,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="51">
+    <row r="214" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>36</v>
@@ -12541,7 +12439,7 @@
         <v>1</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M214" s="9" t="str" cm="1">
         <f t="array" ref="M214">PAGE_NAME(B214)</f>
@@ -12560,15 +12458,15 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="102">
+    <row r="215" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>214</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>36</v>
@@ -12580,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="H215" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M215" s="9" t="str" cm="1">
         <f t="array" ref="M215">PAGE_NAME(B215)</f>
@@ -12599,15 +12497,15 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="102">
+    <row r="216" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>36</v>
@@ -12619,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="H216" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M216" s="9" t="str" cm="1">
         <f t="array" ref="M216">PAGE_NAME(B216)</f>
@@ -12638,15 +12536,15 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="84.95">
+    <row r="217" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>216</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>36</v>
@@ -12658,7 +12556,7 @@
         <v>1</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M217" s="9" t="str" cm="1">
         <f t="array" ref="M217">PAGE_NAME(B217)</f>
@@ -12677,15 +12575,15 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="84.95">
+    <row r="218" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>32</v>
@@ -12713,15 +12611,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="170.1">
+    <row r="219" spans="1:19" ht="170" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>32</v>
@@ -12730,7 +12628,7 @@
         <v>33</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G219" s="7" t="b">
         <v>0</v>
@@ -12752,21 +12650,21 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="68.099999999999994">
+    <row r="220" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G220" s="7" t="b">
         <v>0</v>
@@ -12788,15 +12686,15 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="84.95">
+    <row r="221" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>220</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>32</v>
@@ -12805,7 +12703,7 @@
         <v>33</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G221" s="7" t="b">
         <v>0</v>
@@ -12827,15 +12725,15 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="46.5">
+    <row r="222" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>221</v>
       </c>
       <c r="B222" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="C222" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>39</v>
@@ -12845,15 +12743,6 @@
       </c>
       <c r="G222" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="I222" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="K222" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L222" s="30" t="s">
-        <v>394</v>
       </c>
       <c r="M222" s="9" t="str" cm="1">
         <f t="array" ref="M222">PAGE_NAME(B222)</f>
@@ -12872,24 +12761,24 @@
         <v>Client</v>
       </c>
       <c r="S222" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" ht="68.099999999999994">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>222</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G223" s="7" t="b">
         <v>0</v>
@@ -12911,15 +12800,15 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="153">
+    <row r="224" spans="1:19" ht="153" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>223</v>
       </c>
       <c r="B224" s="41" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>36</v>
@@ -12928,13 +12817,13 @@
         <v>33</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G224" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H224" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M224" s="9" t="str" cm="1">
         <f t="array" ref="M224">PAGE_NAME(B224)</f>
@@ -12953,15 +12842,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="170.1">
+    <row r="225" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>224</v>
       </c>
       <c r="B225" s="41" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>36</v>
@@ -12970,13 +12859,13 @@
         <v>33</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G225" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H225" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M225" s="9" t="str" cm="1">
         <f t="array" ref="M225">PAGE_NAME(B225)</f>
@@ -12995,15 +12884,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="170.1">
+    <row r="226" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>225</v>
       </c>
       <c r="B226" s="41" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>36</v>
@@ -13012,13 +12901,13 @@
         <v>33</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G226" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H226" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M226" s="9" t="str" cm="1">
         <f t="array" ref="M226">PAGE_NAME(B226)</f>
@@ -13037,15 +12926,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="51">
+    <row r="227" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>36</v>
@@ -13073,15 +12962,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="51">
+    <row r="228" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>36</v>
@@ -13112,15 +13001,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="51">
+    <row r="229" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>39</v>
@@ -13129,7 +13018,7 @@
         <v>33</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G229" s="7" t="b">
         <v>0</v>
@@ -13151,15 +13040,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="51">
+    <row r="230" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D230" s="7" t="s">
         <v>36</v>
@@ -13190,15 +13079,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="33.950000000000003">
+    <row r="231" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D231" s="7" t="s">
         <v>36</v>
@@ -13226,15 +13115,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="33.950000000000003">
+    <row r="232" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D232" s="7" t="s">
         <v>36</v>
@@ -13262,15 +13151,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="43.5">
+    <row r="233" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>232</v>
       </c>
       <c r="B233" s="65" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>39</v>
@@ -13298,21 +13187,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="17.100000000000001">
+    <row r="234" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>233</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D234" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G234" s="7" t="b">
         <v>0</v>
@@ -13334,15 +13223,15 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="17.100000000000001">
+    <row r="235" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>234</v>
       </c>
       <c r="B235" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C235" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="D235" s="7" t="s">
         <v>36</v>
@@ -13370,15 +13259,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="46.5">
+    <row r="236" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>235</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>39</v>
@@ -13406,21 +13295,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="17.100000000000001">
+    <row r="237" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>236</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D237" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G237" s="7" t="b">
         <v>0</v>
@@ -13442,15 +13331,15 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="17.100000000000001">
+    <row r="238" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D238" s="7" t="s">
         <v>39</v>
@@ -13478,15 +13367,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="46.5">
+    <row r="239" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>238</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>39</v>
@@ -13514,21 +13403,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="17.100000000000001">
+    <row r="240" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D240" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G240" s="7" t="b">
         <v>0</v>
@@ -13550,15 +13439,15 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="17.100000000000001">
+    <row r="241" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>39</v>
@@ -13586,15 +13475,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="46.5">
+    <row r="242" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>241</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>39</v>
@@ -13622,21 +13511,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="17.100000000000001">
+    <row r="243" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G243" s="7" t="b">
         <v>0</v>
@@ -13658,15 +13547,15 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="33.950000000000003">
+    <row r="244" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>39</v>
@@ -13694,15 +13583,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="46.5">
+    <row r="245" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>244</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>39</v>
@@ -13730,21 +13619,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="17.100000000000001">
+    <row r="246" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G246" s="7" t="b">
         <v>0</v>
@@ -13766,15 +13655,15 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="17.100000000000001">
+    <row r="247" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>39</v>
@@ -13802,15 +13691,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="46.5">
+    <row r="248" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>247</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D248" s="7" t="s">
         <v>39</v>
@@ -13838,21 +13727,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="17.100000000000001">
+    <row r="249" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D249" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G249" s="7" t="b">
         <v>0</v>
@@ -13874,15 +13763,15 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="51">
+    <row r="250" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>249</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>36</v>
@@ -13910,15 +13799,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="33.950000000000003">
+    <row r="251" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>250</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>36</v>
@@ -13946,15 +13835,15 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="33.950000000000003">
+    <row r="252" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>251</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D252" s="7" t="s">
         <v>36</v>
@@ -13982,15 +13871,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="43.5">
+    <row r="253" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>252</v>
       </c>
       <c r="B253" s="65" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>39</v>
@@ -14003,12 +13892,6 @@
       </c>
       <c r="I253" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K253" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L253" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M253" s="9" t="str" cm="1">
         <f t="array" ref="M253">PAGE_NAME(B253)</f>
@@ -14027,24 +13910,24 @@
         <v>Client</v>
       </c>
       <c r="S253" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" ht="17.100000000000001">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D254" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G254" s="7" t="b">
         <v>0</v>
@@ -14066,15 +13949,15 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="17.100000000000001">
+    <row r="255" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D255" s="7" t="s">
         <v>36</v>
@@ -14102,15 +13985,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="61.5">
+    <row r="256" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>255</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>39</v>
@@ -14123,12 +14006,6 @@
       </c>
       <c r="I256" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K256" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L256" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M256" s="9" t="str" cm="1">
         <f t="array" ref="M256">PAGE_NAME(B256)</f>
@@ -14147,24 +14024,24 @@
         <v>Client</v>
       </c>
       <c r="S256" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" ht="17.100000000000001">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>256</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G257" s="7" t="b">
         <v>0</v>
@@ -14186,15 +14063,15 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="17.100000000000001">
+    <row r="258" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D258" s="7" t="s">
         <v>39</v>
@@ -14222,15 +14099,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="61.5">
+    <row r="259" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>258</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>39</v>
@@ -14243,12 +14120,6 @@
       </c>
       <c r="I259" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K259" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L259" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M259" s="9" t="str" cm="1">
         <f t="array" ref="M259">PAGE_NAME(B259)</f>
@@ -14267,24 +14138,24 @@
         <v>Client</v>
       </c>
       <c r="S259" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" ht="17.100000000000001">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G260" s="7" t="b">
         <v>0</v>
@@ -14306,15 +14177,15 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="17.100000000000001">
+    <row r="261" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>39</v>
@@ -14342,15 +14213,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="61.5">
+    <row r="262" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
         <v>261</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D262" s="7" t="s">
         <v>39</v>
@@ -14363,12 +14234,6 @@
       </c>
       <c r="I262" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K262" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L262" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M262" s="9" t="str" cm="1">
         <f t="array" ref="M262">PAGE_NAME(B262)</f>
@@ -14387,24 +14252,24 @@
         <v>Client</v>
       </c>
       <c r="S262" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19" ht="17.100000000000001">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>262</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D263" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G263" s="7" t="b">
         <v>0</v>
@@ -14426,15 +14291,15 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="17.100000000000001">
+    <row r="264" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D264" s="7" t="s">
         <v>39</v>
@@ -14462,15 +14327,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="61.5">
+    <row r="265" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
         <v>264</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D265" s="7" t="s">
         <v>39</v>
@@ -14483,12 +14348,6 @@
       </c>
       <c r="I265" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K265" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L265" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M265" s="9" t="str" cm="1">
         <f t="array" ref="M265">PAGE_NAME(B265)</f>
@@ -14507,24 +14366,24 @@
         <v>Client</v>
       </c>
       <c r="S265" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19" ht="17.100000000000001">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="7">
         <v>265</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G266" s="7" t="b">
         <v>0</v>
@@ -14546,15 +14405,15 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="33.950000000000003">
+    <row r="267" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>266</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>39</v>
@@ -14582,15 +14441,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="61.5">
+    <row r="268" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>267</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D268" s="7" t="s">
         <v>39</v>
@@ -14603,12 +14462,6 @@
       </c>
       <c r="I268" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K268" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L268" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M268" s="9" t="str" cm="1">
         <f t="array" ref="M268">PAGE_NAME(B268)</f>
@@ -14627,24 +14480,24 @@
         <v>Client</v>
       </c>
       <c r="S268" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="269" spans="1:19" ht="17.100000000000001">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="7">
         <v>268</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G269" s="7" t="b">
         <v>0</v>
@@ -14666,15 +14519,15 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="17.100000000000001">
+    <row r="270" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>269</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>39</v>
@@ -14702,15 +14555,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="61.5">
+    <row r="271" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>270</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>39</v>
@@ -14723,12 +14576,6 @@
       </c>
       <c r="I271" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="K271" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L271" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="M271" s="9" t="str" cm="1">
         <f t="array" ref="M271">PAGE_NAME(B271)</f>
@@ -14747,24 +14594,24 @@
         <v>Client</v>
       </c>
       <c r="S271" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19" ht="17.100000000000001">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>271</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D272" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G272" s="7" t="b">
         <v>0</v>
@@ -14786,15 +14633,15 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="51">
+    <row r="273" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>272</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>36</v>
@@ -14822,15 +14669,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="17.100000000000001">
+    <row r="274" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>273</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D274" s="7" t="s">
         <v>36</v>
@@ -14858,15 +14705,15 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="33.950000000000003">
+    <row r="275" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>274</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D275" s="7" t="s">
         <v>36</v>
@@ -14894,15 +14741,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="61.5">
+    <row r="276" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>275</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D276" s="7" t="s">
         <v>39</v>
@@ -14930,21 +14777,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="17.100000000000001">
+    <row r="277" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>276</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G277" s="7" t="b">
         <v>0</v>
@@ -14966,15 +14813,15 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="17.100000000000001">
+    <row r="278" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="7">
         <v>277</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D278" s="7" t="s">
         <v>39</v>
@@ -15002,15 +14849,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="61.5">
+    <row r="279" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>278</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>39</v>
@@ -15038,21 +14885,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="17.100000000000001">
+    <row r="280" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>279</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D280" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G280" s="7" t="b">
         <v>0</v>
@@ -15074,15 +14921,15 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="17.100000000000001">
+    <row r="281" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>280</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D281" s="7" t="s">
         <v>39</v>
@@ -15110,15 +14957,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="61.5">
+    <row r="282" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>281</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>39</v>
@@ -15146,21 +14993,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="17.100000000000001">
+    <row r="283" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>282</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D283" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G283" s="7" t="b">
         <v>0</v>
@@ -15182,15 +15029,15 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="17.100000000000001">
+    <row r="284" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>283</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D284" s="7" t="s">
         <v>39</v>
@@ -15218,15 +15065,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="61.5">
+    <row r="285" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>284</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>39</v>
@@ -15254,21 +15101,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="17.100000000000001">
+    <row r="286" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D286" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G286" s="7" t="b">
         <v>0</v>
@@ -15290,15 +15137,15 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="17.100000000000001">
+    <row r="287" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>286</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D287" s="7" t="s">
         <v>39</v>
@@ -15326,15 +15173,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="61.5">
+    <row r="288" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>287</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D288" s="7" t="s">
         <v>39</v>
@@ -15362,21 +15209,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="289" spans="1:31" ht="17.100000000000001">
+    <row r="289" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>288</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D289" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G289" s="7" t="b">
         <v>0</v>
@@ -15398,15 +15245,15 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:31" ht="33.950000000000003">
+    <row r="290" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>39</v>
@@ -15434,15 +15281,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="291" spans="1:31" ht="61.5">
+    <row r="291" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>39</v>
@@ -15470,21 +15317,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="292" spans="1:31" ht="17.100000000000001">
+    <row r="292" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>291</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D292" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G292" s="7" t="b">
         <v>0</v>
@@ -15506,15 +15353,15 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:31" ht="17.100000000000001">
+    <row r="293" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>292</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D293" s="7" t="s">
         <v>39</v>
@@ -15542,15 +15389,15 @@
         <v>Server</v>
       </c>
     </row>
-    <row r="294" spans="1:31" ht="61.5">
+    <row r="294" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>293</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>39</v>
@@ -15578,21 +15425,21 @@
         <v>Client</v>
       </c>
     </row>
-    <row r="295" spans="1:31" ht="17.100000000000001">
+    <row r="295" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>294</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D295" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G295" s="7" t="b">
         <v>0</v>
@@ -15614,7 +15461,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:31" s="5" customFormat="1" ht="246.95" customHeight="1">
+    <row r="296" spans="1:31" s="5" customFormat="1" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>295</v>
       </c>
@@ -15661,11 +15508,11 @@
       <c r="T296" s="10"/>
       <c r="U296" s="10"/>
       <c r="V296" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Y296" s="14"/>
     </row>
-    <row r="297" spans="1:31" s="58" customFormat="1" ht="46.5">
+    <row r="297" spans="1:31" s="58" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>296</v>
       </c>
@@ -15712,7 +15559,7 @@
       <c r="T297" s="57"/>
       <c r="U297" s="57"/>
       <c r="V297" s="57" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="X297" s="59"/>
       <c r="Y297" s="60"/>
@@ -15722,15 +15569,15 @@
       <c r="AD297" s="59"/>
       <c r="AE297" s="59"/>
     </row>
-    <row r="298" spans="1:31" s="51" customFormat="1" ht="45" customHeight="1">
+    <row r="298" spans="1:31" s="51" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
         <v>297</v>
       </c>
       <c r="B298" s="63" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C298" s="46" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D298" s="45" t="s">
         <v>36</v>
@@ -15760,197 +15607,197 @@
       <c r="U298" s="50"/>
       <c r="V298" s="50"/>
     </row>
-    <row r="299" spans="1:31" ht="57" customHeight="1">
+    <row r="299" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>298</v>
       </c>
       <c r="B299" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C299" s="46" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D299" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:31" ht="54" customHeight="1">
+    <row r="300" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>299</v>
       </c>
       <c r="B300" s="62" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C300" s="46" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D300" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:31" ht="48" customHeight="1">
+    <row r="301" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
         <v>300</v>
       </c>
       <c r="B301" s="62" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D301" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:31" ht="62.1" customHeight="1">
+    <row r="302" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
         <v>301</v>
       </c>
       <c r="B302" s="62" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D302" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:31" ht="62.1" customHeight="1">
+    <row r="303" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>302</v>
       </c>
       <c r="B303" s="62" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:31" ht="62.1" customHeight="1">
+    <row r="304" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>303</v>
       </c>
       <c r="B304" s="62" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D304" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="62.1" customHeight="1">
+    <row r="305" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>304</v>
       </c>
       <c r="B305" s="62" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D305" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="62.1" customHeight="1">
+    <row r="306" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
         <v>305</v>
       </c>
       <c r="B306" s="62" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D306" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="62.1" customHeight="1">
+    <row r="307" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
         <v>306</v>
       </c>
       <c r="B307" s="62" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D307" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="62.1" customHeight="1">
+    <row r="308" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
         <v>307</v>
       </c>
       <c r="B308" s="62" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D308" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="62.1" customHeight="1">
+    <row r="309" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
         <v>308</v>
       </c>
       <c r="B309" s="62" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D309" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="62.1" customHeight="1">
+    <row r="310" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
         <v>309</v>
       </c>
       <c r="B310" s="62" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D310" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="62.1" customHeight="1">
+    <row r="311" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
         <v>310</v>
       </c>
       <c r="B311" s="62" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D311" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="62.1" customHeight="1">
+    <row r="312" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="45"/>
     </row>
-    <row r="313" spans="1:4" ht="62.1" customHeight="1"/>
-    <row r="314" spans="1:4" ht="62.1" customHeight="1"/>
-    <row r="315" spans="1:4" ht="62.1" customHeight="1"/>
-    <row r="316" spans="1:4" ht="62.1" customHeight="1"/>
-    <row r="317" spans="1:4" ht="62.1" customHeight="1"/>
-    <row r="318" spans="1:4" ht="62.1" customHeight="1"/>
+    <row r="313" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:AE311" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <hyperlinks>
@@ -16018,7 +15865,7 @@
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16033,99 +15880,99 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="408.95" customHeight="1">
+    <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="73" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="1:2" ht="81.95" customHeight="1">
+    <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="73"/>
       <c r="B2" s="73"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="B3" s="19" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="B6" s="19" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+    <row r="11" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B11" s="42" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="153">
-      <c r="A11" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -16145,58 +15992,58 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E2" s="40">
         <v>45568</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E3" s="40">
         <v>45594</v>
@@ -16218,23 +16065,23 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -16242,13 +16089,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -16256,31 +16103,31 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -16291,6 +16138,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -16544,36 +16413,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2108B9C9-1ABF-4A87-8444-744386E6CF7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2108B9C9-1ABF-4A87-8444-744386E6CF7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_2.0.0_reqs.xlsx
+++ b/lib/bulk_data_test_kit/requirements/hl7.fhir.uv.bulkdata_2.0.0_reqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/bulk-data-test-kit/lib/bulk_data_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86864A3B-30D3-0646-A1BF-65B926A16F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1866BA7-C595-F74B-AF2F-2056B784EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1680" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="940" yWindow="1680" windowWidth="33080" windowHeight="18880" activeTab="3" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="494">
   <si>
     <r>
       <rPr>
@@ -2760,6 +2760,56 @@
     </r>
   </si>
   <si>
+    <t>A FHIR Bulk Data Client has the option of choosing from this list [of supported operations] to access necessary data based on use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>Depends on MAY params requirements for support of _typeFilter</t>
+  </si>
+  <si>
+    <t>hl7.fhir.uv.bulkdata_2.0.0@169-176</t>
+  </si>
+  <si>
+    <t>Actors*</t>
+  </si>
+  <si>
+    <t>reserved by addition in bulk STU 1</t>
+  </si>
+  <si>
+    <t>hl7.fhir.uv.smart-app-launch_2.0.0@30,228,231,240,241,243-262,265,266,285-289,296,297,305,306,310,311,316,326,335-342,344,372-374,376,377,380-386,389-394,438,439</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>System-level</t>
+  </si>
+  <si>
+    <t>Group-level</t>
+  </si>
+  <si>
+    <t>Patient-level, Group-level</t>
+  </si>
+  <si>
+    <t>Patient-level</t>
+  </si>
+  <si>
+    <t>- General = general requirements applicable to all systems
+- Security = security requirements. May not be included in when referenced if the referenced spec has its own security requirements
+- Export = requirements applicable to all systems regardless of which level of $export operations are supported
+- System-level = requirements applicable to systems implementing system-level $export
+- Group-level = requirements applicable to systems implementing group-level $export
+-Patient-level = requirements applicable to systems implementing patient-level $export</t>
+  </si>
+  <si>
+    <t>Groupings (Column P)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Metadata
 </t>
@@ -2966,26 +3016,29 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.</t>
+      <t xml:space="preserve">E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.
+ Additional metadata:
+</t>
     </r>
-  </si>
-  <si>
-    <t>A FHIR Bulk Data Client has the option of choosing from this list [of supported operations] to access necessary data based on use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>Depends on MAY params requirements for support of _typeFilter</t>
-  </si>
-  <si>
-    <t>hl7.fhir.uv.bulkdata_2.0.0@169-176</t>
-  </si>
-  <si>
-    <t>Actors*</t>
-  </si>
-  <si>
-    <t>reserved by addition in bulk STU 1</t>
-  </si>
-  <si>
-    <t>hl7.fhir.uv.smart-app-launch_2.0.0@30,228,231,240,241,243-262,265,266,285-289,296,297,305,306,310,311,316,326,335-342,344,372-374,376,377,380-386,389-394,438,439</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Groupings (Column P)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: definitions of the Groupings in Column P of the Requirements sheet.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3138,7 +3191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3202,6 +3255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -3463,7 +3522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3607,6 +3666,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4044,14 +4107,14 @@
       <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>477</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="39"/>
       <c r="C5" s="34"/>
     </row>
@@ -4063,17 +4126,17 @@
       <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="72"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -4098,11 +4161,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <dimension ref="A1:AE318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F319" sqref="F319"/>
+      <selection pane="bottomRight" activeCell="R323" sqref="R323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4143,7 +4206,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
@@ -4242,7 +4305,9 @@
         <v>Server</v>
       </c>
       <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="R2" s="10" t="s">
+        <v>484</v>
+      </c>
       <c r="S2" s="16"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -4292,7 +4357,9 @@
         <v>Server</v>
       </c>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="S3" s="16"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
@@ -4335,6 +4402,9 @@
       <c r="P4" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>485</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>38</v>
@@ -4364,7 +4434,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="b">
         <v>0</v>
@@ -4384,6 +4454,9 @@
       <c r="P5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>485</v>
       </c>
       <c r="V5" s="16" t="s">
         <v>463</v>
@@ -4431,6 +4504,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R6" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="5"/>
@@ -4471,6 +4547,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R7" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="5"/>
@@ -4511,6 +4590,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R8" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="5"/>
@@ -4551,6 +4633,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R9" s="10" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -4587,6 +4672,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R10" s="10" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="11" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
@@ -4623,6 +4711,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R11" s="10" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
@@ -4659,6 +4750,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R12" s="10" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="13" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
@@ -4695,6 +4789,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R13" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="14" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
@@ -4731,6 +4828,9 @@
         <f>IF(ISNUMBER(SEARCH("server", C14)), "Server", IF(ISNUMBER(SEARCH("Server", C14)), "Server", IF(ISNUMBER(SEARCH("client", C14)), "Client", IF(ISNUMBER(SEARCH("Client", C14)), "Client", ""))))</f>
         <v>Server</v>
       </c>
+      <c r="R14" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="15" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
@@ -4767,6 +4867,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R15" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="16" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
@@ -4803,6 +4906,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R16" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="17" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -4839,6 +4945,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R17" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="18" spans="1:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
@@ -4881,6 +4990,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R18" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S18" s="16" t="s">
         <v>58</v>
       </c>
@@ -4923,6 +5035,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R19" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="W19" s="6" t="s">
         <v>61</v>
       </c>
@@ -4962,6 +5077,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R20" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
@@ -4998,6 +5116,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R21" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
@@ -5034,6 +5155,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R22" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="23" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
@@ -5070,6 +5194,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R23" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="24" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -5106,6 +5233,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R24" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:23" ht="34" x14ac:dyDescent="0.2">
@@ -5143,6 +5273,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R25" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="26" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
@@ -5179,6 +5312,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R26" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
@@ -5254,6 +5390,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R28" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="29" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
@@ -5290,6 +5429,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R29" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
@@ -5326,6 +5468,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R30" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="31" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
@@ -5362,6 +5507,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R31" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="32" spans="1:23" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
@@ -5401,6 +5549,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R32" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S32" s="16" t="s">
         <v>80</v>
       </c>
@@ -5447,6 +5598,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R33" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="34" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
@@ -5486,6 +5640,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R34" s="67" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
@@ -5525,6 +5682,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R35" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
@@ -5564,6 +5724,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R36" s="67" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
@@ -5603,6 +5766,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R37" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
@@ -5642,6 +5808,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R38" s="67" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
@@ -5681,6 +5850,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R39" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
@@ -5717,6 +5889,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R40" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
@@ -5753,6 +5928,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R41" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
@@ -5789,6 +5967,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R42" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
@@ -5828,6 +6009,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R43" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
@@ -5870,6 +6054,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R44" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S44" s="16" t="s">
         <v>80</v>
       </c>
@@ -5912,6 +6099,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R45" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
@@ -5954,6 +6144,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R46" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S46" s="16" t="s">
         <v>80</v>
       </c>
@@ -5996,6 +6189,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R47" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
@@ -6032,6 +6228,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R48" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="49" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
@@ -6071,6 +6270,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R49" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S49" s="16" t="s">
         <v>80</v>
       </c>
@@ -6110,6 +6312,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R50" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="51" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
@@ -6146,6 +6351,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R51" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="52" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
@@ -6182,6 +6390,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R52" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
@@ -6218,6 +6429,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R53" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="54" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
@@ -6254,6 +6468,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R54" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="55" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
@@ -6293,6 +6510,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R55" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S55" s="16" t="s">
         <v>80</v>
       </c>
@@ -6335,6 +6555,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R56" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="57" spans="1:19" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
@@ -6374,6 +6597,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R57" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
@@ -6413,6 +6639,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R58" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
@@ -6452,6 +6681,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R59" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
@@ -6488,6 +6720,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R60" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
@@ -6524,6 +6759,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R61" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
@@ -6563,6 +6801,9 @@
         <f t="shared" si="0"/>
         <v>Client</v>
       </c>
+      <c r="R62" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S62" s="16" t="s">
         <v>80</v>
       </c>
@@ -6605,6 +6846,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R63" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
@@ -6644,6 +6888,9 @@
         <f t="shared" si="0"/>
         <v>Server</v>
       </c>
+      <c r="R64" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
@@ -6683,6 +6930,9 @@
         <f t="shared" ref="P65:P128" si="2">IF(ISNUMBER(SEARCH("server", C65)), "Server", IF(ISNUMBER(SEARCH("Server", C65)), "Server", IF(ISNUMBER(SEARCH("client", C65)), "Client", IF(ISNUMBER(SEARCH("Client", C65)), "Client", ""))))</f>
         <v/>
       </c>
+      <c r="R65" s="67" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
@@ -6722,6 +6972,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R66" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
@@ -6761,6 +7014,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R67" s="67" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="68" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
@@ -6800,6 +7056,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R68" s="67" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="238" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
@@ -6839,6 +7098,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R69" s="67" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="70" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
@@ -6878,6 +7140,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R70" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
@@ -6917,6 +7182,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R71" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="72" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
@@ -6956,6 +7224,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R72" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="73" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
@@ -6995,6 +7266,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R73" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
@@ -7028,6 +7302,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R74" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
@@ -7064,6 +7341,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R75" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S75" s="16" t="s">
         <v>80</v>
       </c>
@@ -7106,6 +7386,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R76" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="77" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
@@ -7145,6 +7428,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R77" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
@@ -7184,6 +7470,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R78" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="79" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
@@ -7223,6 +7512,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R79" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="80" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
@@ -7262,6 +7554,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R80" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
@@ -7301,6 +7596,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R81" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
@@ -7340,6 +7638,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R82" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
@@ -7379,12 +7680,15 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R83" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -7415,6 +7719,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R84" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
@@ -7454,6 +7761,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R85" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S85" s="16" t="s">
         <v>80</v>
       </c>
@@ -7496,6 +7806,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R86" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
@@ -7535,6 +7848,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R87" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
@@ -7574,6 +7890,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R88" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="89" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
@@ -7613,6 +7932,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R89" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
@@ -7652,6 +7974,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R90" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
@@ -7688,6 +8013,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R91" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
@@ -7727,6 +8055,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R92" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S92" s="16" t="s">
         <v>80</v>
       </c>
@@ -7769,6 +8100,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R93" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
@@ -7808,6 +8142,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R94" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
@@ -7847,6 +8184,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R95" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
@@ -7889,6 +8229,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R96" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S96" s="16" t="s">
         <v>80</v>
       </c>
@@ -7934,6 +8277,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R97" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="98" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
@@ -7973,6 +8319,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R98" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
@@ -8012,6 +8361,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R99" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
@@ -8051,6 +8403,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R100" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
@@ -8090,6 +8445,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R101" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
@@ -8126,6 +8484,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R102" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
@@ -8165,6 +8526,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R103" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S103" s="16" t="s">
         <v>80</v>
       </c>
@@ -8207,6 +8571,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R104" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="105" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
@@ -8237,7 +8604,7 @@
         <v>78</v>
       </c>
       <c r="L105" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
@@ -8255,6 +8622,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R105" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S105" s="16" t="s">
         <v>80</v>
       </c>
@@ -8297,6 +8667,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R106" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="107" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
@@ -8336,6 +8709,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R107" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="108" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
@@ -8372,6 +8748,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R108" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="109" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
@@ -8411,6 +8790,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R109" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="110" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
@@ -8451,6 +8833,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R110" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
@@ -8490,6 +8875,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R111" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
@@ -8529,6 +8917,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R112" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="113" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
@@ -8568,6 +8959,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R113" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="114" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
@@ -8607,6 +9001,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R114" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S114" s="16" t="s">
         <v>80</v>
       </c>
@@ -8640,7 +9037,7 @@
         <v>78</v>
       </c>
       <c r="L115" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
@@ -8658,6 +9055,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="R115" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S115" s="16" t="s">
         <v>80</v>
       </c>
@@ -8697,6 +9097,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R116" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="W116" s="6" t="s">
         <v>61</v>
       </c>
@@ -8739,6 +9142,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R117" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S117" s="16" t="s">
         <v>80</v>
       </c>
@@ -8778,6 +9184,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R118" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="119" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
@@ -8817,6 +9226,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R119" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="120" spans="1:23" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
@@ -8859,6 +9271,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R120" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S120" s="16" t="s">
         <v>58</v>
       </c>
@@ -8904,6 +9319,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R121" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="122" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
@@ -8943,6 +9361,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R122" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="123" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
@@ -8982,6 +9403,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R123" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="124" spans="1:23" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
@@ -9024,6 +9448,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R124" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S124" s="16" t="s">
         <v>58</v>
       </c>
@@ -9072,6 +9499,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R125" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S125" s="16" t="s">
         <v>80</v>
       </c>
@@ -9120,6 +9550,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R126" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="127" spans="1:23" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
@@ -9162,6 +9595,9 @@
         <f t="shared" si="2"/>
         <v>Client</v>
       </c>
+      <c r="R127" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S127" s="16" t="s">
         <v>80</v>
       </c>
@@ -9207,6 +9643,9 @@
         <f t="shared" si="2"/>
         <v>Server</v>
       </c>
+      <c r="R128" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="129" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
@@ -9246,6 +9685,9 @@
         <f t="shared" ref="P129:P194" si="4">IF(ISNUMBER(SEARCH("server", C129)), "Server", IF(ISNUMBER(SEARCH("Server", C129)), "Server", IF(ISNUMBER(SEARCH("client", C129)), "Client", IF(ISNUMBER(SEARCH("Client", C129)), "Client", ""))))</f>
         <v>Server</v>
       </c>
+      <c r="R129" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="130" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
@@ -9285,6 +9727,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R130" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="131" spans="1:23" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
@@ -9327,6 +9772,9 @@
         <f t="shared" si="4"/>
         <v>Client</v>
       </c>
+      <c r="R131" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S131" s="16" t="s">
         <v>80</v>
       </c>
@@ -9372,6 +9820,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R132" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="133" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
@@ -9408,6 +9859,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R133" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="134" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
@@ -9444,6 +9898,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R134" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="135" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
@@ -9480,6 +9937,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R135" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="136" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
@@ -9515,6 +9975,9 @@
       <c r="P136" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Client</v>
+      </c>
+      <c r="R136" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="W136" s="6" t="s">
         <v>61</v>
@@ -9559,6 +10022,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R137" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S137" s="10"/>
     </row>
     <row r="138" spans="1:23" ht="68" x14ac:dyDescent="0.2">
@@ -9599,6 +10065,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R138" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="139" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
@@ -9635,6 +10104,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R139" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="140" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
@@ -9674,6 +10146,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R140" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="141" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
@@ -9713,6 +10188,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R141" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="142" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
@@ -9752,6 +10230,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R142" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="143" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
@@ -9791,6 +10272,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R143" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="144" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
@@ -9830,6 +10314,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R144" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="145" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
@@ -9866,6 +10353,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R145" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="146" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
@@ -9902,6 +10392,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R146" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="147" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
@@ -9938,6 +10431,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R147" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="W147" s="13"/>
     </row>
     <row r="148" spans="1:23" ht="85" x14ac:dyDescent="0.2">
@@ -9975,6 +10471,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R148" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="149" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
@@ -10011,6 +10510,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R149" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="150" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
@@ -10047,6 +10549,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R150" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="151" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
@@ -10083,6 +10588,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R151" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="152" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
@@ -10119,6 +10627,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R152" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="153" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
@@ -10155,6 +10666,9 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
+      <c r="R153" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="154" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
@@ -10191,6 +10705,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R154" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="155" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
@@ -10227,6 +10744,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R155" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="156" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
@@ -10263,6 +10783,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R156" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="157" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
@@ -10299,6 +10822,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R157" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="158" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
@@ -10335,6 +10861,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R158" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="159" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
@@ -10374,6 +10903,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R159" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="160" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
@@ -10410,8 +10942,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R160" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -10446,8 +10981,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="R161" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -10482,8 +11020,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R162" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -10521,8 +11062,11 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R163" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -10557,8 +11101,11 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R164" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -10593,8 +11140,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R165" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -10629,8 +11179,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="1:16" ht="136" x14ac:dyDescent="0.2">
+      <c r="R166" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -10665,8 +11218,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+      <c r="R167" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -10704,8 +11260,11 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R168" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -10722,7 +11281,7 @@
         <v>31</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G169" s="7" t="b">
         <v>0</v>
@@ -10743,8 +11302,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="R169" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -10779,8 +11341,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="R170" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -10815,8 +11380,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="R171" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -10851,8 +11419,11 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="R172" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -10887,8 +11458,11 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+      <c r="R173" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -10926,8 +11500,11 @@
         <f t="shared" si="4"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+      <c r="R174" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -10962,8 +11539,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R175" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -10998,8 +11578,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+      <c r="R176" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -11034,8 +11617,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+      <c r="R177" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -11073,8 +11659,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="R178" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -11109,8 +11698,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R179" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -11145,8 +11737,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R180" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -11181,8 +11776,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="R181" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -11220,8 +11818,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="1:16" ht="153" x14ac:dyDescent="0.2">
+      <c r="R182" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" ht="153" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -11259,8 +11860,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R183" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -11298,8 +11902,11 @@
         <f t="shared" ref="P184:P186" si="7">IF(ISNUMBER(SEARCH("server", C184)), "Server", IF(ISNUMBER(SEARCH("Server", C184)), "Server", IF(ISNUMBER(SEARCH("client", C184)), "Client", IF(ISNUMBER(SEARCH("Client", C184)), "Client", ""))))</f>
         <v>Server</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R184" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -11337,8 +11944,11 @@
         <f t="shared" si="7"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R185" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -11376,8 +11986,11 @@
         <f t="shared" si="7"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="R186" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -11412,8 +12025,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="R187" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -11448,8 +12064,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="R188" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -11484,8 +12103,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="R189" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -11520,8 +12142,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="R190" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>190</v>
       </c>
@@ -11556,8 +12181,11 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="R191" s="10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>191</v>
       </c>
@@ -11592,6 +12220,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R192" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="193" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
@@ -11628,6 +12259,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R193" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="194" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
@@ -11667,6 +12301,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="R194" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="195" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
@@ -11703,6 +12340,9 @@
         <f t="shared" ref="P195:P258" si="8">IF(ISNUMBER(SEARCH("server", C195)), "Server", IF(ISNUMBER(SEARCH("Server", C195)), "Server", IF(ISNUMBER(SEARCH("client", C195)), "Client", IF(ISNUMBER(SEARCH("Client", C195)), "Client", ""))))</f>
         <v/>
       </c>
+      <c r="R195" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="196" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
@@ -11742,6 +12382,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R196" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="197" spans="1:23" ht="119" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
@@ -11778,6 +12421,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R197" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="198" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
@@ -11817,6 +12463,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R198" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="199" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
@@ -11853,6 +12502,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R199" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="200" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
@@ -11889,6 +12541,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R200" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="201" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
@@ -11931,6 +12586,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R201" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S201" s="16" t="s">
         <v>58</v>
       </c>
@@ -11982,6 +12640,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R202" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="S202" s="16" t="s">
         <v>80</v>
       </c>
@@ -12024,6 +12685,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R203" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="204" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
@@ -12060,6 +12724,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R204" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="205" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
@@ -12096,6 +12763,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R205" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="206" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
@@ -12132,6 +12802,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R206" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="207" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
@@ -12168,6 +12841,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R207" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="208" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
@@ -12204,6 +12880,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R208" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="209" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
@@ -12240,6 +12919,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R209" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="210" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
@@ -12276,6 +12958,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R210" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="211" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
@@ -12312,6 +12997,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R211" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="212" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
@@ -12351,6 +13039,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R212" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="213" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
@@ -12390,6 +13081,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R213" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="214" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
@@ -12429,6 +13123,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R214" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="215" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
@@ -12468,6 +13165,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R215" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="216" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
@@ -12507,6 +13207,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R216" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="217" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
@@ -12546,6 +13249,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R217" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="218" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
@@ -12582,6 +13288,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R218" s="10" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="219" spans="1:22" ht="238" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
@@ -12600,7 +13309,7 @@
         <v>31</v>
       </c>
       <c r="F219" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G219" s="7" t="b">
         <v>0</v>
@@ -12621,6 +13330,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R219" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="V219" s="16" t="s">
         <v>463</v>
       </c>
@@ -12696,6 +13408,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R221" s="10" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="222" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
@@ -12705,7 +13420,7 @@
         <v>366</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>37</v>
@@ -12735,6 +13450,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R222" s="10" t="s">
+        <v>484</v>
+      </c>
       <c r="S222" s="16" t="s">
         <v>80</v>
       </c>
@@ -12814,6 +13532,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R224" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="225" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
@@ -12854,6 +13575,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R225" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="226" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
@@ -12894,6 +13618,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R226" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="227" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
@@ -12930,6 +13657,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R227" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="228" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
@@ -12966,6 +13696,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R228" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="229" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
@@ -13002,6 +13735,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R229" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="230" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
@@ -13038,6 +13774,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R230" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="231" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
@@ -13113,6 +13852,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R232" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="233" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
@@ -13149,6 +13891,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R233" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="234" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
@@ -13221,6 +13966,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R235" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="236" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
@@ -13257,6 +14005,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R236" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="237" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
@@ -13329,6 +14080,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R238" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="239" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
@@ -13365,6 +14119,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R239" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="240" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
@@ -13437,6 +14194,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R241" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="242" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
@@ -13473,6 +14233,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R242" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="243" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
@@ -13545,6 +14308,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R244" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="245" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
@@ -13581,6 +14347,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R245" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="246" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
@@ -13653,6 +14422,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R247" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="248" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
@@ -13689,6 +14461,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R248" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="249" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
@@ -13761,6 +14536,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R250" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="251" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
@@ -13797,6 +14575,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="R251" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="252" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
@@ -13833,6 +14614,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R252" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="253" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
@@ -13872,6 +14656,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R253" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="S253" s="16" t="s">
         <v>80</v>
       </c>
@@ -13947,6 +14734,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R255" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="256" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
@@ -13986,6 +14776,9 @@
         <f t="shared" si="8"/>
         <v>Client</v>
       </c>
+      <c r="R256" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="S256" s="16" t="s">
         <v>80</v>
       </c>
@@ -14061,6 +14854,9 @@
         <f t="shared" si="8"/>
         <v>Server</v>
       </c>
+      <c r="R258" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="259" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
@@ -14100,6 +14896,9 @@
         <f t="shared" ref="P259:P272" si="10">IF(ISNUMBER(SEARCH("server", C259)), "Server", IF(ISNUMBER(SEARCH("Server", C259)), "Server", IF(ISNUMBER(SEARCH("client", C259)), "Client", IF(ISNUMBER(SEARCH("Client", C259)), "Client", ""))))</f>
         <v>Client</v>
       </c>
+      <c r="R259" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="S259" s="16" t="s">
         <v>80</v>
       </c>
@@ -14175,6 +14974,9 @@
         <f t="shared" si="10"/>
         <v>Server</v>
       </c>
+      <c r="R261" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="262" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
@@ -14214,6 +15016,9 @@
         <f t="shared" si="10"/>
         <v>Client</v>
       </c>
+      <c r="R262" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="S262" s="16" t="s">
         <v>80</v>
       </c>
@@ -14289,6 +15094,9 @@
         <f t="shared" si="10"/>
         <v>Server</v>
       </c>
+      <c r="R264" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="265" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
@@ -14328,6 +15136,9 @@
         <f t="shared" si="10"/>
         <v>Client</v>
       </c>
+      <c r="R265" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="S265" s="16" t="s">
         <v>80</v>
       </c>
@@ -14403,6 +15214,9 @@
         <f t="shared" si="10"/>
         <v>Server</v>
       </c>
+      <c r="R267" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="268" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
@@ -14442,6 +15256,9 @@
         <f t="shared" si="10"/>
         <v>Client</v>
       </c>
+      <c r="R268" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="S268" s="16" t="s">
         <v>80</v>
       </c>
@@ -14517,6 +15334,9 @@
         <f t="shared" si="10"/>
         <v>Server</v>
       </c>
+      <c r="R270" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="271" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
@@ -14556,6 +15376,9 @@
         <f t="shared" si="10"/>
         <v>Client</v>
       </c>
+      <c r="R271" s="10" t="s">
+        <v>488</v>
+      </c>
       <c r="S271" s="16" t="s">
         <v>80</v>
       </c>
@@ -14596,7 +15419,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>272</v>
       </c>
@@ -14631,8 +15454,11 @@
         <f>IF(ISNUMBER(SEARCH("server", C273)), "Server", IF(ISNUMBER(SEARCH("Server", C273)), "Server", IF(ISNUMBER(SEARCH("client", C273)), "Client", IF(ISNUMBER(SEARCH("Client", C273)), "Client", ""))))</f>
         <v>Server</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R273" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>273</v>
       </c>
@@ -14667,8 +15493,11 @@
         <f t="shared" ref="P274:P298" si="12">IF(ISNUMBER(SEARCH("server", C274)), "Server", IF(ISNUMBER(SEARCH("Server", C274)), "Server", IF(ISNUMBER(SEARCH("client", C274)), "Client", IF(ISNUMBER(SEARCH("Client", C274)), "Client", ""))))</f>
         <v/>
       </c>
-    </row>
-    <row r="275" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R274" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>274</v>
       </c>
@@ -14703,8 +15532,11 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R275" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>275</v>
       </c>
@@ -14739,8 +15571,11 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R276" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>276</v>
       </c>
@@ -14776,7 +15611,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="7">
         <v>277</v>
       </c>
@@ -14811,8 +15646,11 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R278" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>278</v>
       </c>
@@ -14847,8 +15685,11 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R279" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>279</v>
       </c>
@@ -14884,7 +15725,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>280</v>
       </c>
@@ -14919,8 +15760,11 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R281" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>281</v>
       </c>
@@ -14955,8 +15799,11 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R282" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>282</v>
       </c>
@@ -14992,7 +15839,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>283</v>
       </c>
@@ -15027,8 +15874,11 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R284" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>284</v>
       </c>
@@ -15063,8 +15913,11 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R285" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>285</v>
       </c>
@@ -15100,7 +15953,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>286</v>
       </c>
@@ -15135,8 +15988,11 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="R287" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>287</v>
       </c>
@@ -15171,6 +16027,9 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
+      <c r="R288" s="10" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="289" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
@@ -15243,6 +16102,9 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
+      <c r="R290" s="10" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="291" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
@@ -15279,6 +16141,9 @@
         <f t="shared" si="12"/>
         <v>Client</v>
       </c>
+      <c r="R291" s="10" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="292" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
@@ -15351,6 +16216,9 @@
         <f t="shared" si="12"/>
         <v>Server</v>
       </c>
+      <c r="R293" s="10" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="294" spans="1:31" ht="34" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
@@ -15386,6 +16254,9 @@
       <c r="P294" s="10" t="str">
         <f t="shared" si="12"/>
         <v>Client</v>
+      </c>
+      <c r="R294" s="10" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="295" spans="1:31" ht="17" x14ac:dyDescent="0.2">
@@ -15466,7 +16337,9 @@
         <v>Server</v>
       </c>
       <c r="Q296" s="10"/>
-      <c r="R296" s="10"/>
+      <c r="R296" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="S296" s="16"/>
       <c r="T296" s="10"/>
       <c r="U296" s="10"/>
@@ -15475,7 +16348,7 @@
       </c>
       <c r="Y296" s="14"/>
     </row>
-    <row r="297" spans="1:31" s="58" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" s="58" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>296</v>
       </c>
@@ -15517,7 +16390,9 @@
         <v/>
       </c>
       <c r="Q297" s="57"/>
-      <c r="R297" s="57"/>
+      <c r="R297" s="10" t="s">
+        <v>485</v>
+      </c>
       <c r="S297" s="54"/>
       <c r="T297" s="57"/>
       <c r="U297" s="57"/>
@@ -15566,7 +16441,9 @@
         <v>Server</v>
       </c>
       <c r="Q298" s="50"/>
-      <c r="R298" s="50"/>
+      <c r="R298" s="10" t="s">
+        <v>490</v>
+      </c>
       <c r="S298" s="47"/>
       <c r="T298" s="50"/>
       <c r="U298" s="50"/>
@@ -15588,6 +16465,9 @@
       <c r="E299" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R299" s="10" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="300" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
@@ -15605,6 +16485,9 @@
       <c r="E300" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R300" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="301" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
@@ -15622,6 +16505,9 @@
       <c r="E301" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R301" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="302" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
@@ -15639,6 +16525,9 @@
       <c r="E302" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R302" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="303" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
@@ -15656,6 +16545,9 @@
       <c r="E303" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R303" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="304" spans="1:31" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
@@ -15673,6 +16565,9 @@
       <c r="E304" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R304" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="305" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
@@ -15690,6 +16585,9 @@
       <c r="E305" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R305" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="306" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
@@ -15707,6 +16605,9 @@
       <c r="E306" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R306" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="307" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
@@ -15724,6 +16625,9 @@
       <c r="E307" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R307" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="308" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
@@ -15741,6 +16645,9 @@
       <c r="E308" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R308" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="309" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
@@ -15758,6 +16665,9 @@
       <c r="E309" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R309" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="310" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
@@ -15775,6 +16685,9 @@
       <c r="E310" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R310" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="311" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
@@ -15792,6 +16705,9 @@
       <c r="E311" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="R311" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="312" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="45">
@@ -15801,7 +16717,7 @@
         <v>71</v>
       </c>
       <c r="V312" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -15812,7 +16728,7 @@
         <v>71</v>
       </c>
       <c r="V313" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="314" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -15823,7 +16739,7 @@
         <v>71</v>
       </c>
       <c r="V314" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="315" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -15834,7 +16750,7 @@
         <v>71</v>
       </c>
       <c r="V315" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="316" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -15845,7 +16761,7 @@
         <v>71</v>
       </c>
       <c r="V316" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="317" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -15856,7 +16772,7 @@
         <v>71</v>
       </c>
       <c r="V317" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="318" spans="1:22" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -15867,7 +16783,7 @@
         <v>71</v>
       </c>
       <c r="V318" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -15905,6 +16821,7 @@
     <hyperlink ref="B149" r:id="rId29" location="response---complete-status" xr:uid="{B0720E1E-4816-F842-82C8-C111E8C22B58}"/>
     <hyperlink ref="B229" r:id="rId30" location="bulkdataigcapabilitystatement" xr:uid="{4CF2CCA0-FA45-274E-B515-93FFD2130283}"/>
     <hyperlink ref="B228" r:id="rId31" location="bulkdataigcapabilitystatement" xr:uid="{5D27A2D1-DFBB-104F-ABC7-76F2A9211160}"/>
+    <hyperlink ref="B84" r:id="rId32" location="query-parameters" xr:uid="{32E0F273-4A07-D44B-AC1C-0A5D007653DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15952,27 +16869,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="56.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
@@ -16051,6 +16968,14 @@
       </c>
       <c r="B13" s="19" t="s">
         <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
